--- a/teaching/traditional_assets/database/data/jamaica/jamaica_computer_services.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_computer_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="jmse_ttech" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,113 +592,119 @@
           <t>Computer Services</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.169</v>
+      </c>
+      <c r="E2">
+        <v>-0.0668</v>
+      </c>
       <c r="G2">
-        <v>0.08785425101214574</v>
+        <v>0.07572016460905349</v>
       </c>
       <c r="H2">
-        <v>0.08785425101214574</v>
+        <v>0.07572016460905349</v>
       </c>
       <c r="I2">
-        <v>0.07524838129527403</v>
+        <v>0.03374485596707819</v>
       </c>
       <c r="J2">
-        <v>0.07524838129527403</v>
+        <v>0.03374485596707819</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0.107</v>
       </c>
       <c r="L2">
-        <v>0.08097165991902834</v>
+        <v>0.04403292181069959</v>
       </c>
       <c r="M2">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01151241534988713</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2549999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01151241534988713</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.2549999999999999</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>0.721</v>
+        <v>0.229</v>
       </c>
       <c r="V2">
-        <v>0.1627539503386005</v>
+        <v>0.07067901234567901</v>
       </c>
       <c r="W2">
-        <v>0.1298701298701299</v>
+        <v>0.06524390243902439</v>
       </c>
       <c r="X2">
-        <v>0.123694789411452</v>
+        <v>0.1150003391241022</v>
       </c>
       <c r="Y2">
-        <v>0.00617534045867793</v>
+        <v>-0.04975643668507777</v>
       </c>
       <c r="Z2">
-        <v>3.928851264901501</v>
+        <v>2.64417845484222</v>
       </c>
       <c r="AA2">
-        <v>0.2956396980337279</v>
+        <v>0.08922742110990207</v>
       </c>
       <c r="AB2">
-        <v>0.1234807141425684</v>
+        <v>0.1113661218543277</v>
       </c>
       <c r="AC2">
-        <v>0.1721589838911595</v>
+        <v>-0.0221387007444256</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="AE2">
-        <v>0.01568249100336572</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01568249100336572</v>
+        <v>0.212</v>
       </c>
       <c r="AG2">
-        <v>-0.7053175089966343</v>
+        <v>-0.01700000000000002</v>
       </c>
       <c r="AH2">
-        <v>0.003527577831998134</v>
+        <v>0.06141367323290845</v>
       </c>
       <c r="AI2">
-        <v>0.009471919337542743</v>
+        <v>0.1120507399577167</v>
       </c>
       <c r="AJ2">
-        <v>-0.189363123085059</v>
+        <v>-0.005274588892336337</v>
       </c>
       <c r="AK2">
-        <v>-0.7546065276557048</v>
+        <v>-0.01022248947684908</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AM2">
-        <v>-0.011</v>
+        <v>0.014</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.859649122807017</v>
+      </c>
+      <c r="AO2">
+        <v>2.733333333333333</v>
       </c>
       <c r="AP2">
-        <v>-3.14873887944926</v>
+        <v>-0.149122807017544</v>
       </c>
       <c r="AQ2">
-        <v>-15.63636363636364</v>
+        <v>5.857142857142858</v>
       </c>
     </row>
     <row r="3">
@@ -715,113 +723,8837 @@
           <t>Computer Services</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.169</v>
+      </c>
+      <c r="E3">
+        <v>-0.0668</v>
+      </c>
       <c r="G3">
-        <v>0.08785425101214574</v>
+        <v>0.07572016460905349</v>
       </c>
       <c r="H3">
-        <v>0.08785425101214574</v>
+        <v>0.07572016460905349</v>
       </c>
       <c r="I3">
-        <v>0.07524838129527403</v>
+        <v>0.03374485596707819</v>
       </c>
       <c r="J3">
-        <v>0.07524838129527403</v>
+        <v>0.03374485596707819</v>
       </c>
       <c r="K3">
+        <v>0.107</v>
+      </c>
+      <c r="L3">
+        <v>0.04403292181069959</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>-0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.229</v>
+      </c>
+      <c r="V3">
+        <v>0.07067901234567901</v>
+      </c>
+      <c r="W3">
+        <v>0.06524390243902439</v>
+      </c>
+      <c r="X3">
+        <v>0.1150003391241022</v>
+      </c>
+      <c r="Y3">
+        <v>-0.04975643668507777</v>
+      </c>
+      <c r="Z3">
+        <v>2.64417845484222</v>
+      </c>
+      <c r="AA3">
+        <v>0.08922742110990207</v>
+      </c>
+      <c r="AB3">
+        <v>0.1113661218543277</v>
+      </c>
+      <c r="AC3">
+        <v>-0.0221387007444256</v>
+      </c>
+      <c r="AD3">
+        <v>0.212</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.212</v>
+      </c>
+      <c r="AG3">
+        <v>-0.01700000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>0.06141367323290845</v>
+      </c>
+      <c r="AI3">
+        <v>0.1120507399577167</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.005274588892336337</v>
+      </c>
+      <c r="AK3">
+        <v>-0.01022248947684908</v>
+      </c>
+      <c r="AL3">
+        <v>0.03</v>
+      </c>
+      <c r="AM3">
+        <v>0.014</v>
+      </c>
+      <c r="AN3">
+        <v>1.859649122807017</v>
+      </c>
+      <c r="AO3">
+        <v>2.733333333333333</v>
+      </c>
+      <c r="AP3">
+        <v>-0.149122807017544</v>
+      </c>
+      <c r="AQ3">
+        <v>5.857142857142858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tTech Limited (JMSE:TTECH)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JMSE:TTECH</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Computer Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0614136732329085</v>
+      </c>
+      <c r="F2">
+        <v>0.23</v>
+      </c>
+      <c r="G2">
+        <v>3.24</v>
+      </c>
+      <c r="H2">
+        <v>2.83612272063881</v>
+      </c>
+      <c r="I2">
+        <v>3.223</v>
+      </c>
+      <c r="J2">
+        <v>3.40108272063881</v>
+      </c>
+      <c r="K2">
+        <v>0.212</v>
+      </c>
+      <c r="L2">
+        <v>0.79396</v>
+      </c>
+      <c r="M2">
+        <v>0.111366121854328</v>
+      </c>
+      <c r="N2">
+        <v>0.106021878812377</v>
+      </c>
+      <c r="O2">
+        <v>0.055824310750227</v>
+      </c>
+      <c r="P2">
+        <v>0.01695</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B1/B+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.115000339124102</v>
+      </c>
+      <c r="T2">
+        <v>0.132627764691399</v>
+      </c>
+      <c r="U2">
+        <v>1.05177192578056</v>
+      </c>
+      <c r="V2">
+        <v>1.22717374084666</v>
+      </c>
+      <c r="W2">
+        <v>4.569900982506419</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>3.24</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.07443241433363595</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.114</v>
+      </c>
+      <c r="AH2">
+        <v>0.032</v>
+      </c>
+      <c r="AI2">
+        <v>0.06700000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>0.212</v>
+      </c>
+      <c r="AK2">
+        <v>0.212</v>
+      </c>
+      <c r="AL2">
+        <v>0.03</v>
+      </c>
+      <c r="AM2">
+        <v>0.212</v>
+      </c>
+      <c r="AN2">
+        <v>0.229</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1100558395887293</v>
+      </c>
+      <c r="C2">
+        <v>3.493913597854589</v>
+      </c>
+      <c r="D2">
+        <v>3.264913597854589</v>
+      </c>
+      <c r="E2">
+        <v>-0.212</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.229</v>
+      </c>
+      <c r="H2">
+        <v>3.24</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.114</v>
+      </c>
+      <c r="K2">
+        <v>0.032</v>
+      </c>
+      <c r="L2">
+        <v>0.082</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.082</v>
+      </c>
+      <c r="O2">
+        <v>0.0205</v>
+      </c>
+      <c r="P2">
+        <v>0.0615</v>
+      </c>
+      <c r="Q2">
+        <v>0.0935</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1100558395887293</v>
+      </c>
+      <c r="T2">
+        <v>1.002571650346872</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>0.01215</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1098324499897575</v>
+      </c>
+      <c r="C3">
+        <v>3.466648446805118</v>
+      </c>
+      <c r="D3">
+        <v>3.272168446805118</v>
+      </c>
+      <c r="E3">
+        <v>-0.17748</v>
+      </c>
+      <c r="F3">
+        <v>0.03452</v>
+      </c>
+      <c r="G3">
+        <v>0.229</v>
+      </c>
+      <c r="H3">
+        <v>3.24</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.114</v>
+      </c>
+      <c r="K3">
+        <v>0.032</v>
+      </c>
+      <c r="L3">
+        <v>0.082</v>
+      </c>
+      <c r="M3">
+        <v>0.000559224</v>
+      </c>
+      <c r="N3">
+        <v>0.08144077600000001</v>
+      </c>
+      <c r="O3">
+        <v>0.020360194</v>
+      </c>
+      <c r="P3">
+        <v>0.06108058200000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.09308058200000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1108191414037955</v>
+      </c>
+      <c r="T3">
+        <v>1.010166890122227</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>0.01215</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>146.631761154743</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1096090603907857</v>
+      </c>
+      <c r="C4">
+        <v>3.439415609044027</v>
+      </c>
+      <c r="D4">
+        <v>3.279455609044027</v>
+      </c>
+      <c r="E4">
+        <v>-0.14296</v>
+      </c>
+      <c r="F4">
+        <v>0.06904</v>
+      </c>
+      <c r="G4">
+        <v>0.229</v>
+      </c>
+      <c r="H4">
+        <v>3.24</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.114</v>
+      </c>
+      <c r="K4">
+        <v>0.032</v>
+      </c>
+      <c r="L4">
+        <v>0.082</v>
+      </c>
+      <c r="M4">
+        <v>0.001118448</v>
+      </c>
+      <c r="N4">
+        <v>0.08088155200000001</v>
+      </c>
+      <c r="O4">
+        <v>0.020220388</v>
+      </c>
+      <c r="P4">
+        <v>0.060661164</v>
+      </c>
+      <c r="Q4">
+        <v>0.092661164</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1115980208069242</v>
+      </c>
+      <c r="T4">
+        <v>1.017917134790957</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.01215</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>73.31588057737152</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1093856707918139</v>
+      </c>
+      <c r="C5">
+        <v>3.412215300939524</v>
+      </c>
+      <c r="D5">
+        <v>3.286775300939524</v>
+      </c>
+      <c r="E5">
+        <v>-0.10844</v>
+      </c>
+      <c r="F5">
+        <v>0.10356</v>
+      </c>
+      <c r="G5">
+        <v>0.229</v>
+      </c>
+      <c r="H5">
+        <v>3.24</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.114</v>
+      </c>
+      <c r="K5">
+        <v>0.032</v>
+      </c>
+      <c r="L5">
+        <v>0.082</v>
+      </c>
+      <c r="M5">
+        <v>0.001677672</v>
+      </c>
+      <c r="N5">
+        <v>0.080322328</v>
+      </c>
+      <c r="O5">
+        <v>0.020080582</v>
+      </c>
+      <c r="P5">
+        <v>0.060241746</v>
+      </c>
+      <c r="Q5">
+        <v>0.092241746</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1123929595791895</v>
+      </c>
+      <c r="T5">
+        <v>1.025827178318836</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>0.01215</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>48.87725371824767</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.109162281192842</v>
+      </c>
+      <c r="C6">
+        <v>3.385047740795865</v>
+      </c>
+      <c r="D6">
+        <v>3.294127740795865</v>
+      </c>
+      <c r="E6">
+        <v>-0.07391999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.13808</v>
+      </c>
+      <c r="G6">
+        <v>0.229</v>
+      </c>
+      <c r="H6">
+        <v>3.24</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.114</v>
+      </c>
+      <c r="K6">
+        <v>0.032</v>
+      </c>
+      <c r="L6">
+        <v>0.082</v>
+      </c>
+      <c r="M6">
+        <v>0.002236896</v>
+      </c>
+      <c r="N6">
+        <v>0.079763104</v>
+      </c>
+      <c r="O6">
+        <v>0.019940776</v>
+      </c>
+      <c r="P6">
+        <v>0.059822328</v>
+      </c>
+      <c r="Q6">
+        <v>0.09182232800000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1132044595758771</v>
+      </c>
+      <c r="T6">
+        <v>1.033902014420212</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <v>0.01215</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>36.65794028868575</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1089388915938702</v>
+      </c>
+      <c r="C7">
+        <v>3.35791314887505</v>
+      </c>
+      <c r="D7">
+        <v>3.30151314887505</v>
+      </c>
+      <c r="E7">
+        <v>-0.03939999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.1726</v>
+      </c>
+      <c r="G7">
+        <v>0.229</v>
+      </c>
+      <c r="H7">
+        <v>3.24</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.114</v>
+      </c>
+      <c r="K7">
+        <v>0.032</v>
+      </c>
+      <c r="L7">
+        <v>0.082</v>
+      </c>
+      <c r="M7">
+        <v>0.00279612</v>
+      </c>
+      <c r="N7">
+        <v>0.07920388</v>
+      </c>
+      <c r="O7">
+        <v>0.01980097</v>
+      </c>
+      <c r="P7">
+        <v>0.05940291</v>
+      </c>
+      <c r="Q7">
+        <v>0.09140291</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1140330437830213</v>
+      </c>
+      <c r="T7">
+        <v>1.042146847071091</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <v>0.01215</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>29.3263522309486</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1087155019948984</v>
+      </c>
+      <c r="C8">
+        <v>3.330811747418818</v>
+      </c>
+      <c r="D8">
+        <v>3.308931747418818</v>
+      </c>
+      <c r="E8">
+        <v>-0.004879999999999968</v>
+      </c>
+      <c r="F8">
+        <v>0.20712</v>
+      </c>
+      <c r="G8">
+        <v>0.229</v>
+      </c>
+      <c r="H8">
+        <v>3.24</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.114</v>
+      </c>
+      <c r="K8">
+        <v>0.032</v>
+      </c>
+      <c r="L8">
+        <v>0.082</v>
+      </c>
+      <c r="M8">
+        <v>0.003355344</v>
+      </c>
+      <c r="N8">
+        <v>0.07864465600000001</v>
+      </c>
+      <c r="O8">
+        <v>0.019661164</v>
+      </c>
+      <c r="P8">
+        <v>0.05898349200000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.090983492</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1148792574413813</v>
+      </c>
+      <c r="T8">
+        <v>1.050567101693265</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.01215</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>24.43862685912384</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1084921123959266</v>
+      </c>
+      <c r="C9">
+        <v>3.303743760670947</v>
+      </c>
+      <c r="D9">
+        <v>3.316383760670946</v>
+      </c>
+      <c r="E9">
+        <v>0.02964000000000006</v>
+      </c>
+      <c r="F9">
+        <v>0.24164</v>
+      </c>
+      <c r="G9">
+        <v>0.229</v>
+      </c>
+      <c r="H9">
+        <v>3.24</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.114</v>
+      </c>
+      <c r="K9">
+        <v>0.032</v>
+      </c>
+      <c r="L9">
+        <v>0.082</v>
+      </c>
+      <c r="M9">
+        <v>0.003914568</v>
+      </c>
+      <c r="N9">
+        <v>0.07808543200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.019521358</v>
+      </c>
+      <c r="P9">
+        <v>0.05856407400000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.09056407400000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1157436692429318</v>
+      </c>
+      <c r="T9">
+        <v>1.059168437060002</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.25</v>
+      </c>
+      <c r="W9">
+        <v>0.01215</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>20.94739445067757</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1082687227969548</v>
+      </c>
+      <c r="C10">
+        <v>3.276709414899837</v>
+      </c>
+      <c r="D10">
+        <v>3.323869414899836</v>
+      </c>
+      <c r="E10">
+        <v>0.06416000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.27616</v>
+      </c>
+      <c r="G10">
+        <v>0.229</v>
+      </c>
+      <c r="H10">
+        <v>3.24</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.114</v>
+      </c>
+      <c r="K10">
+        <v>0.032</v>
+      </c>
+      <c r="L10">
+        <v>0.082</v>
+      </c>
+      <c r="M10">
+        <v>0.004473792</v>
+      </c>
+      <c r="N10">
+        <v>0.077526208</v>
+      </c>
+      <c r="O10">
+        <v>0.019381552</v>
+      </c>
+      <c r="P10">
+        <v>0.058144656</v>
+      </c>
+      <c r="Q10">
+        <v>0.090144656</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1166268726053856</v>
+      </c>
+      <c r="T10">
+        <v>1.06795675797819</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.25</v>
+      </c>
+      <c r="W10">
+        <v>0.01215</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>18.32897014434288</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1080453331979829</v>
+      </c>
+      <c r="C11">
+        <v>3.249708938421424</v>
+      </c>
+      <c r="D11">
+        <v>3.331388938421424</v>
+      </c>
+      <c r="E11">
+        <v>0.09868000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.31068</v>
+      </c>
+      <c r="G11">
+        <v>0.229</v>
+      </c>
+      <c r="H11">
+        <v>3.24</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.114</v>
+      </c>
+      <c r="K11">
+        <v>0.032</v>
+      </c>
+      <c r="L11">
+        <v>0.082</v>
+      </c>
+      <c r="M11">
+        <v>0.005033016</v>
+      </c>
+      <c r="N11">
+        <v>0.076966984</v>
+      </c>
+      <c r="O11">
+        <v>0.019241746</v>
+      </c>
+      <c r="P11">
+        <v>0.057725238</v>
+      </c>
+      <c r="Q11">
+        <v>0.089725238</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1175294870307505</v>
+      </c>
+      <c r="T11">
+        <v>1.076938228806667</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.25</v>
+      </c>
+      <c r="W11">
+        <v>0.01215</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>16.29241790608256</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1078219435990111</v>
+      </c>
+      <c r="C12">
+        <v>3.222742561622384</v>
+      </c>
+      <c r="D12">
+        <v>3.338942561622384</v>
+      </c>
+      <c r="E12">
+        <v>0.1332000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.3452000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.229</v>
+      </c>
+      <c r="H12">
+        <v>3.24</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.114</v>
+      </c>
+      <c r="K12">
+        <v>0.032</v>
+      </c>
+      <c r="L12">
+        <v>0.082</v>
+      </c>
+      <c r="M12">
+        <v>0.005592240000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.07640776000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.01910194</v>
+      </c>
+      <c r="P12">
+        <v>0.05730582000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.08930582000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1184521595544568</v>
+      </c>
+      <c r="T12">
+        <v>1.086119287875778</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.25</v>
+      </c>
+      <c r="W12">
+        <v>0.01215</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>14.6631761154743</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1077305540000393</v>
+      </c>
+      <c r="C13">
+        <v>3.19132266224456</v>
+      </c>
+      <c r="D13">
+        <v>3.34204266224456</v>
+      </c>
+      <c r="E13">
+        <v>0.1677200000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.3797200000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.229</v>
+      </c>
+      <c r="H13">
+        <v>3.24</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.114</v>
+      </c>
+      <c r="K13">
+        <v>0.032</v>
+      </c>
+      <c r="L13">
+        <v>0.082</v>
+      </c>
+      <c r="M13">
+        <v>0.006759016000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.075240984</v>
+      </c>
+      <c r="O13">
+        <v>0.018810246</v>
+      </c>
+      <c r="P13">
+        <v>0.05643073799999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.08843073799999999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.119395566292179</v>
+      </c>
+      <c r="T13">
+        <v>1.095506662879026</v>
+      </c>
+      <c r="U13">
+        <v>0.0178</v>
+      </c>
+      <c r="V13">
+        <v>0.25</v>
+      </c>
+      <c r="W13">
+        <v>0.01335</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>12.13194346632705</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1075191644010675</v>
+      </c>
+      <c r="C14">
+        <v>3.163995485177096</v>
+      </c>
+      <c r="D14">
+        <v>3.349235485177096</v>
+      </c>
+      <c r="E14">
+        <v>0.2022400000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.4142400000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.229</v>
+      </c>
+      <c r="H14">
+        <v>3.24</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.114</v>
+      </c>
+      <c r="K14">
+        <v>0.032</v>
+      </c>
+      <c r="L14">
+        <v>0.082</v>
+      </c>
+      <c r="M14">
+        <v>0.007373472000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.074626528</v>
+      </c>
+      <c r="O14">
+        <v>0.018656632</v>
+      </c>
+      <c r="P14">
+        <v>0.055969896</v>
+      </c>
+      <c r="Q14">
+        <v>0.08796989599999999</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1203604140921221</v>
+      </c>
+      <c r="T14">
+        <v>1.105107387314166</v>
+      </c>
+      <c r="U14">
+        <v>0.0178</v>
+      </c>
+      <c r="V14">
+        <v>0.25</v>
+      </c>
+      <c r="W14">
+        <v>0.01335</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>11.12094817746646</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1075222748020956</v>
+      </c>
+      <c r="C15">
+        <v>3.129369425064788</v>
+      </c>
+      <c r="D15">
+        <v>3.349129425064788</v>
+      </c>
+      <c r="E15">
+        <v>0.2367600000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.44876</v>
+      </c>
+      <c r="G15">
+        <v>0.229</v>
+      </c>
+      <c r="H15">
+        <v>3.24</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.114</v>
+      </c>
+      <c r="K15">
+        <v>0.032</v>
+      </c>
+      <c r="L15">
+        <v>0.082</v>
+      </c>
+      <c r="M15">
+        <v>0.008975199999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.0730248</v>
+      </c>
+      <c r="O15">
+        <v>0.0182562</v>
+      </c>
+      <c r="P15">
+        <v>0.0547686</v>
+      </c>
+      <c r="Q15">
+        <v>0.0867686</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1213474423012594</v>
+      </c>
+      <c r="T15">
+        <v>1.114928818058159</v>
+      </c>
+      <c r="U15">
+        <v>0.02</v>
+      </c>
+      <c r="V15">
+        <v>0.25</v>
+      </c>
+      <c r="W15">
+        <v>0.015</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>9.136286656564756</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1073273852031238</v>
+      </c>
+      <c r="C16">
+        <v>3.101507875549855</v>
+      </c>
+      <c r="D16">
+        <v>3.355787875549855</v>
+      </c>
+      <c r="E16">
+        <v>0.2712800000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.4832800000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.229</v>
+      </c>
+      <c r="H16">
+        <v>3.24</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.114</v>
+      </c>
+      <c r="K16">
+        <v>0.032</v>
+      </c>
+      <c r="L16">
+        <v>0.082</v>
+      </c>
+      <c r="M16">
+        <v>0.0096656</v>
+      </c>
+      <c r="N16">
+        <v>0.07233440000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0180836</v>
+      </c>
+      <c r="P16">
+        <v>0.0542508</v>
+      </c>
+      <c r="Q16">
+        <v>0.0862508</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1223574246547951</v>
+      </c>
+      <c r="T16">
+        <v>1.124978654168292</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+      <c r="V16">
+        <v>0.25</v>
+      </c>
+      <c r="W16">
+        <v>0.015</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>8.483694752524418</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.107132495604152</v>
+      </c>
+      <c r="C17">
+        <v>3.073672854290933</v>
+      </c>
+      <c r="D17">
+        <v>3.362472854290933</v>
+      </c>
+      <c r="E17">
+        <v>0.3058000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.5178</v>
+      </c>
+      <c r="G17">
+        <v>0.229</v>
+      </c>
+      <c r="H17">
+        <v>3.24</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.114</v>
+      </c>
+      <c r="K17">
+        <v>0.032</v>
+      </c>
+      <c r="L17">
+        <v>0.082</v>
+      </c>
+      <c r="M17">
+        <v>0.010356</v>
+      </c>
+      <c r="N17">
+        <v>0.071644</v>
+      </c>
+      <c r="O17">
+        <v>0.017911</v>
+      </c>
+      <c r="P17">
+        <v>0.053733</v>
+      </c>
+      <c r="Q17">
+        <v>0.085733</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1233911712990023</v>
+      </c>
+      <c r="T17">
+        <v>1.135264957010429</v>
+      </c>
+      <c r="U17">
+        <v>0.02</v>
+      </c>
+      <c r="V17">
+        <v>0.25</v>
+      </c>
+      <c r="W17">
+        <v>0.015</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>7.918115102356123</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1070696060051802</v>
+      </c>
+      <c r="C18">
+        <v>3.041315740877065</v>
+      </c>
+      <c r="D18">
+        <v>3.364635740877065</v>
+      </c>
+      <c r="E18">
+        <v>0.3403200000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.55232</v>
+      </c>
+      <c r="G18">
+        <v>0.229</v>
+      </c>
+      <c r="H18">
+        <v>3.24</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.114</v>
+      </c>
+      <c r="K18">
+        <v>0.032</v>
+      </c>
+      <c r="L18">
+        <v>0.082</v>
+      </c>
+      <c r="M18">
+        <v>0.011653952</v>
+      </c>
+      <c r="N18">
+        <v>0.07034604800000001</v>
+      </c>
+      <c r="O18">
+        <v>0.017586512</v>
+      </c>
+      <c r="P18">
+        <v>0.05275953600000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.08475953600000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1244495309585478</v>
+      </c>
+      <c r="T18">
+        <v>1.145796171824996</v>
+      </c>
+      <c r="U18">
+        <v>0.0211</v>
+      </c>
+      <c r="V18">
+        <v>0.25</v>
+      </c>
+      <c r="W18">
+        <v>0.015825</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>7.036239723657692</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1068829664062083</v>
+      </c>
+      <c r="C19">
+        <v>3.013231026547205</v>
+      </c>
+      <c r="D19">
+        <v>3.371071026547205</v>
+      </c>
+      <c r="E19">
+        <v>0.3748400000000002</v>
+      </c>
+      <c r="F19">
+        <v>0.5868400000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.229</v>
+      </c>
+      <c r="H19">
+        <v>3.24</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.114</v>
+      </c>
+      <c r="K19">
+        <v>0.032</v>
+      </c>
+      <c r="L19">
+        <v>0.082</v>
+      </c>
+      <c r="M19">
+        <v>0.012382324</v>
+      </c>
+      <c r="N19">
+        <v>0.069617676</v>
+      </c>
+      <c r="O19">
+        <v>0.017404419</v>
+      </c>
+      <c r="P19">
+        <v>0.052213257</v>
+      </c>
+      <c r="Q19">
+        <v>0.084213257</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.125533393260492</v>
+      </c>
+      <c r="T19">
+        <v>1.156581150851964</v>
+      </c>
+      <c r="U19">
+        <v>0.0211</v>
+      </c>
+      <c r="V19">
+        <v>0.25</v>
+      </c>
+      <c r="W19">
+        <v>0.015825</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>6.622343269324885</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1068988268072365</v>
+      </c>
+      <c r="C20">
+        <v>2.978163207068994</v>
+      </c>
+      <c r="D20">
+        <v>3.370523207068994</v>
+      </c>
+      <c r="E20">
+        <v>0.4093600000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.62136</v>
+      </c>
+      <c r="G20">
+        <v>0.229</v>
+      </c>
+      <c r="H20">
+        <v>3.24</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.114</v>
+      </c>
+      <c r="K20">
+        <v>0.032</v>
+      </c>
+      <c r="L20">
+        <v>0.082</v>
+      </c>
+      <c r="M20">
+        <v>0.014042736</v>
+      </c>
+      <c r="N20">
+        <v>0.067957264</v>
+      </c>
+      <c r="O20">
+        <v>0.016989316</v>
+      </c>
+      <c r="P20">
+        <v>0.050967948</v>
+      </c>
+      <c r="Q20">
+        <v>0.082967948</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1266436912283372</v>
+      </c>
+      <c r="T20">
+        <v>1.167629178147881</v>
+      </c>
+      <c r="U20">
+        <v>0.0226</v>
+      </c>
+      <c r="V20">
+        <v>0.25</v>
+      </c>
+      <c r="W20">
+        <v>0.01695</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>5.839317922091536</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1067234372082647</v>
+      </c>
+      <c r="C21">
+        <v>2.949711097204601</v>
+      </c>
+      <c r="D21">
+        <v>3.376591097204601</v>
+      </c>
+      <c r="E21">
+        <v>0.4438800000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.6558800000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.229</v>
+      </c>
+      <c r="H21">
+        <v>3.24</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.114</v>
+      </c>
+      <c r="K21">
+        <v>0.032</v>
+      </c>
+      <c r="L21">
+        <v>0.082</v>
+      </c>
+      <c r="M21">
+        <v>0.014822888</v>
+      </c>
+      <c r="N21">
+        <v>0.067177112</v>
+      </c>
+      <c r="O21">
+        <v>0.016794278</v>
+      </c>
+      <c r="P21">
+        <v>0.050382834</v>
+      </c>
+      <c r="Q21">
+        <v>0.082382834</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1277814039608206</v>
+      </c>
+      <c r="T21">
+        <v>1.178949996241229</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0.25</v>
+      </c>
+      <c r="W21">
+        <v>0.01695</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>5.531985399876191</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>0.2</v>
       </c>
-      <c r="L3">
-        <v>0.08097165991902834</v>
-      </c>
-      <c r="M3">
-        <v>0.051</v>
-      </c>
-      <c r="N3">
-        <v>0.01151241534988713</v>
-      </c>
-      <c r="O3">
-        <v>0.2549999999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.051</v>
-      </c>
-      <c r="Q3">
-        <v>0.01151241534988713</v>
-      </c>
-      <c r="R3">
-        <v>0.2549999999999999</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.721</v>
-      </c>
-      <c r="V3">
-        <v>0.1627539503386005</v>
-      </c>
-      <c r="W3">
-        <v>0.1298701298701299</v>
-      </c>
-      <c r="X3">
-        <v>0.123694789411452</v>
-      </c>
-      <c r="Y3">
-        <v>0.00617534045867793</v>
-      </c>
-      <c r="Z3">
-        <v>3.928851264901501</v>
-      </c>
-      <c r="AA3">
-        <v>0.2956396980337279</v>
-      </c>
-      <c r="AB3">
-        <v>0.1234807141425684</v>
-      </c>
-      <c r="AC3">
-        <v>0.1721589838911595</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.01568249100336572</v>
-      </c>
-      <c r="AF3">
-        <v>0.01568249100336572</v>
-      </c>
-      <c r="AG3">
-        <v>-0.7053175089966343</v>
-      </c>
-      <c r="AH3">
-        <v>0.003527577831998134</v>
-      </c>
-      <c r="AI3">
-        <v>0.009471919337542743</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.189363123085059</v>
-      </c>
-      <c r="AK3">
-        <v>-0.7546065276557048</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-0.011</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>-3.14873887944926</v>
-      </c>
-      <c r="AQ3">
-        <v>-15.63636363636364</v>
+      <c r="B22">
+        <v>0.1065480476092929</v>
+      </c>
+      <c r="C22">
+        <v>2.921280874562497</v>
+      </c>
+      <c r="D22">
+        <v>3.382680874562497</v>
+      </c>
+      <c r="E22">
+        <v>0.4784000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.6904000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.229</v>
+      </c>
+      <c r="H22">
+        <v>3.24</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.114</v>
+      </c>
+      <c r="K22">
+        <v>0.032</v>
+      </c>
+      <c r="L22">
+        <v>0.082</v>
+      </c>
+      <c r="M22">
+        <v>0.01560304</v>
+      </c>
+      <c r="N22">
+        <v>0.06639696</v>
+      </c>
+      <c r="O22">
+        <v>0.01659924</v>
+      </c>
+      <c r="P22">
+        <v>0.04979772</v>
+      </c>
+      <c r="Q22">
+        <v>0.08179772</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1289475595116161</v>
+      </c>
+      <c r="T22">
+        <v>1.19055383478691</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0.25</v>
+      </c>
+      <c r="W22">
+        <v>0.01695</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>5.255386129882382</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.106372658010321</v>
+      </c>
+      <c r="C23">
+        <v>2.892872657779312</v>
+      </c>
+      <c r="D23">
+        <v>3.388792657779312</v>
+      </c>
+      <c r="E23">
+        <v>0.51292</v>
+      </c>
+      <c r="F23">
+        <v>0.72492</v>
+      </c>
+      <c r="G23">
+        <v>0.229</v>
+      </c>
+      <c r="H23">
+        <v>3.24</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.114</v>
+      </c>
+      <c r="K23">
+        <v>0.032</v>
+      </c>
+      <c r="L23">
+        <v>0.082</v>
+      </c>
+      <c r="M23">
+        <v>0.016383192</v>
+      </c>
+      <c r="N23">
+        <v>0.065616808</v>
+      </c>
+      <c r="O23">
+        <v>0.016404202</v>
+      </c>
+      <c r="P23">
+        <v>0.049212606</v>
+      </c>
+      <c r="Q23">
+        <v>0.08121260599999999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1301432379877482</v>
+      </c>
+      <c r="T23">
+        <v>1.20245144139704</v>
+      </c>
+      <c r="U23">
+        <v>0.0226</v>
+      </c>
+      <c r="V23">
+        <v>0.25</v>
+      </c>
+      <c r="W23">
+        <v>0.01695</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>5.005129647507031</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1061972684113492</v>
+      </c>
+      <c r="C24">
+        <v>2.86448656635064</v>
+      </c>
+      <c r="D24">
+        <v>3.39492656635064</v>
+      </c>
+      <c r="E24">
+        <v>0.5474400000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.7594400000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.229</v>
+      </c>
+      <c r="H24">
+        <v>3.24</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.114</v>
+      </c>
+      <c r="K24">
+        <v>0.032</v>
+      </c>
+      <c r="L24">
+        <v>0.082</v>
+      </c>
+      <c r="M24">
+        <v>0.017163344</v>
+      </c>
+      <c r="N24">
+        <v>0.06483665600000001</v>
+      </c>
+      <c r="O24">
+        <v>0.016209164</v>
+      </c>
+      <c r="P24">
+        <v>0.04862749200000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.08062749200000001</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1313695748863452</v>
+      </c>
+      <c r="T24">
+        <v>1.214654114843326</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0.25</v>
+      </c>
+      <c r="W24">
+        <v>0.01695</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>4.77762375443853</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1060218788123774</v>
+      </c>
+      <c r="C25">
+        <v>2.836122720638813</v>
+      </c>
+      <c r="D25">
+        <v>3.401082720638813</v>
+      </c>
+      <c r="E25">
+        <v>0.5819600000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.7939600000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.229</v>
+      </c>
+      <c r="H25">
+        <v>3.24</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.114</v>
+      </c>
+      <c r="K25">
+        <v>0.032</v>
+      </c>
+      <c r="L25">
+        <v>0.082</v>
+      </c>
+      <c r="M25">
+        <v>0.017943496</v>
+      </c>
+      <c r="N25">
+        <v>0.064056504</v>
+      </c>
+      <c r="O25">
+        <v>0.016014126</v>
+      </c>
+      <c r="P25">
+        <v>0.048042378</v>
+      </c>
+      <c r="Q25">
+        <v>0.080042378</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1326277646913992</v>
+      </c>
+      <c r="T25">
+        <v>1.227173740846658</v>
+      </c>
+      <c r="U25">
+        <v>0.0226</v>
+      </c>
+      <c r="V25">
+        <v>0.25</v>
+      </c>
+      <c r="W25">
+        <v>0.01695</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>4.569900982506419</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1225558289378928</v>
+      </c>
+      <c r="C26">
+        <v>2.305086712560927</v>
+      </c>
+      <c r="D26">
+        <v>2.904566712560927</v>
+      </c>
+      <c r="E26">
+        <v>0.6164800000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.8284800000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.229</v>
+      </c>
+      <c r="H26">
+        <v>3.24</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.114</v>
+      </c>
+      <c r="K26">
+        <v>0.032</v>
+      </c>
+      <c r="L26">
+        <v>0.082</v>
+      </c>
+      <c r="M26">
+        <v>0.09030432000000001</v>
+      </c>
+      <c r="N26">
+        <v>-0.008304320000000004</v>
+      </c>
+      <c r="O26">
+        <v>-0.002076080000000001</v>
+      </c>
+      <c r="P26">
+        <v>-0.006228240000000003</v>
+      </c>
+      <c r="Q26">
+        <v>0.02577176</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1346505464008683</v>
+      </c>
+      <c r="T26">
+        <v>1.247301443667972</v>
+      </c>
+      <c r="U26">
+        <v>0.109</v>
+      </c>
+      <c r="V26">
+        <v>0.2270101806868154</v>
+      </c>
+      <c r="W26">
+        <v>0.08425589030513711</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.9080407227472617</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1235528289378928</v>
+      </c>
+      <c r="C27">
+        <v>2.245220705469958</v>
+      </c>
+      <c r="D27">
+        <v>2.879220705469958</v>
+      </c>
+      <c r="E27">
+        <v>0.6510000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.8630000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.229</v>
+      </c>
+      <c r="H27">
+        <v>3.24</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.114</v>
+      </c>
+      <c r="K27">
+        <v>0.032</v>
+      </c>
+      <c r="L27">
+        <v>0.082</v>
+      </c>
+      <c r="M27">
+        <v>0.09406700000000001</v>
+      </c>
+      <c r="N27">
+        <v>-0.01206700000000001</v>
+      </c>
+      <c r="O27">
+        <v>-0.003016750000000002</v>
+      </c>
+      <c r="P27">
+        <v>-0.009050250000000006</v>
+      </c>
+      <c r="Q27">
+        <v>0.02294974999999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1363218870195466</v>
+      </c>
+      <c r="T27">
+        <v>1.263932129583545</v>
+      </c>
+      <c r="U27">
+        <v>0.109</v>
+      </c>
+      <c r="V27">
+        <v>0.2179297734593428</v>
+      </c>
+      <c r="W27">
+        <v>0.08524565469293163</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.8717190938373711</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1245498289378928</v>
+      </c>
+      <c r="C28">
+        <v>2.185793223438895</v>
+      </c>
+      <c r="D28">
+        <v>2.854313223438895</v>
+      </c>
+      <c r="E28">
+        <v>0.6855200000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.8975200000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.229</v>
+      </c>
+      <c r="H28">
+        <v>3.24</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.114</v>
+      </c>
+      <c r="K28">
+        <v>0.032</v>
+      </c>
+      <c r="L28">
+        <v>0.082</v>
+      </c>
+      <c r="M28">
+        <v>0.09782968000000002</v>
+      </c>
+      <c r="N28">
+        <v>-0.01582968000000001</v>
+      </c>
+      <c r="O28">
+        <v>-0.003957420000000003</v>
+      </c>
+      <c r="P28">
+        <v>-0.01187226000000001</v>
+      </c>
+      <c r="Q28">
+        <v>0.02012773999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1380383990062972</v>
+      </c>
+      <c r="T28">
+        <v>1.281012293496836</v>
+      </c>
+      <c r="U28">
+        <v>0.109</v>
+      </c>
+      <c r="V28">
+        <v>0.2095478590955219</v>
+      </c>
+      <c r="W28">
+        <v>0.08615928335858812</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.8381914363820876</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1255468289378928</v>
+      </c>
+      <c r="C29">
+        <v>2.126792983334548</v>
+      </c>
+      <c r="D29">
+        <v>2.829832983334548</v>
+      </c>
+      <c r="E29">
+        <v>0.7200400000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.9320400000000002</v>
+      </c>
+      <c r="G29">
+        <v>0.229</v>
+      </c>
+      <c r="H29">
+        <v>3.24</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.114</v>
+      </c>
+      <c r="K29">
+        <v>0.032</v>
+      </c>
+      <c r="L29">
+        <v>0.082</v>
+      </c>
+      <c r="M29">
+        <v>0.10159236</v>
+      </c>
+      <c r="N29">
+        <v>-0.01959236000000002</v>
+      </c>
+      <c r="O29">
+        <v>-0.004898090000000004</v>
+      </c>
+      <c r="P29">
+        <v>-0.01469427000000001</v>
+      </c>
+      <c r="Q29">
+        <v>0.01730572999999999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1398019387187122</v>
+      </c>
+      <c r="T29">
+        <v>1.298560407106382</v>
+      </c>
+      <c r="U29">
+        <v>0.109</v>
+      </c>
+      <c r="V29">
+        <v>0.2017868272771692</v>
+      </c>
+      <c r="W29">
+        <v>0.08700523582678855</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.8071473091086769</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1365014411983134</v>
+      </c>
+      <c r="C30">
+        <v>1.848567229672141</v>
+      </c>
+      <c r="D30">
+        <v>2.586127229672142</v>
+      </c>
+      <c r="E30">
+        <v>0.7545600000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.9665600000000002</v>
+      </c>
+      <c r="G30">
+        <v>0.229</v>
+      </c>
+      <c r="H30">
+        <v>3.24</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.114</v>
+      </c>
+      <c r="K30">
+        <v>0.032</v>
+      </c>
+      <c r="L30">
+        <v>0.082</v>
+      </c>
+      <c r="M30">
+        <v>0.135511712</v>
+      </c>
+      <c r="N30">
+        <v>-0.053511712</v>
+      </c>
+      <c r="O30">
+        <v>-0.013377928</v>
+      </c>
+      <c r="P30">
+        <v>-0.04013378400000001</v>
+      </c>
+      <c r="Q30">
+        <v>-0.008133784000000005</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1433111493403896</v>
+      </c>
+      <c r="T30">
+        <v>1.333478830681142</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0.1512784370992228</v>
+      </c>
+      <c r="W30">
+        <v>0.1189907631186889</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.6051137483968914</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1378104411983134</v>
+      </c>
+      <c r="C31">
+        <v>1.787705085702557</v>
+      </c>
+      <c r="D31">
+        <v>2.559785085702557</v>
+      </c>
+      <c r="E31">
+        <v>0.78908</v>
+      </c>
+      <c r="F31">
+        <v>1.00108</v>
+      </c>
+      <c r="G31">
+        <v>0.229</v>
+      </c>
+      <c r="H31">
+        <v>3.24</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.114</v>
+      </c>
+      <c r="K31">
+        <v>0.032</v>
+      </c>
+      <c r="L31">
+        <v>0.082</v>
+      </c>
+      <c r="M31">
+        <v>0.140351416</v>
+      </c>
+      <c r="N31">
+        <v>-0.05835141599999998</v>
+      </c>
+      <c r="O31">
+        <v>-0.01458785399999999</v>
+      </c>
+      <c r="P31">
+        <v>-0.04376356199999998</v>
+      </c>
+      <c r="Q31">
+        <v>-0.01176356199999998</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1451986303170148</v>
+      </c>
+      <c r="T31">
+        <v>1.352260222662567</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0.1460619392682152</v>
+      </c>
+      <c r="W31">
+        <v>0.1197221161145962</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.5842477570728607</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1391194411983134</v>
+      </c>
+      <c r="C32">
+        <v>1.727374169816192</v>
+      </c>
+      <c r="D32">
+        <v>2.533974169816192</v>
+      </c>
+      <c r="E32">
+        <v>0.8236000000000001</v>
+      </c>
+      <c r="F32">
+        <v>1.0356</v>
+      </c>
+      <c r="G32">
+        <v>0.229</v>
+      </c>
+      <c r="H32">
+        <v>3.24</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.114</v>
+      </c>
+      <c r="K32">
+        <v>0.032</v>
+      </c>
+      <c r="L32">
+        <v>0.082</v>
+      </c>
+      <c r="M32">
+        <v>0.14519112</v>
+      </c>
+      <c r="N32">
+        <v>-0.06319112</v>
+      </c>
+      <c r="O32">
+        <v>-0.01579778</v>
+      </c>
+      <c r="P32">
+        <v>-0.04739334000000001</v>
+      </c>
+      <c r="Q32">
+        <v>-0.01539334000000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1471400393215436</v>
+      </c>
+      <c r="T32">
+        <v>1.371578225843461</v>
+      </c>
+      <c r="U32">
+        <v>0.1402</v>
+      </c>
+      <c r="V32">
+        <v>0.1411932079592746</v>
+      </c>
+      <c r="W32">
+        <v>0.1204047122441097</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.5647728318370986</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1404284411983134</v>
+      </c>
+      <c r="C33">
+        <v>1.667558572934407</v>
+      </c>
+      <c r="D33">
+        <v>2.508678572934407</v>
+      </c>
+      <c r="E33">
+        <v>0.8581200000000002</v>
+      </c>
+      <c r="F33">
+        <v>1.07012</v>
+      </c>
+      <c r="G33">
+        <v>0.229</v>
+      </c>
+      <c r="H33">
+        <v>3.24</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.114</v>
+      </c>
+      <c r="K33">
+        <v>0.032</v>
+      </c>
+      <c r="L33">
+        <v>0.082</v>
+      </c>
+      <c r="M33">
+        <v>0.150030824</v>
+      </c>
+      <c r="N33">
+        <v>-0.068030824</v>
+      </c>
+      <c r="O33">
+        <v>-0.017007706</v>
+      </c>
+      <c r="P33">
+        <v>-0.05102311800000001</v>
+      </c>
+      <c r="Q33">
+        <v>-0.01902311800000001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1491377210508413</v>
+      </c>
+      <c r="T33">
+        <v>1.39145617114554</v>
+      </c>
+      <c r="U33">
+        <v>0.1402</v>
+      </c>
+      <c r="V33">
+        <v>0.1366385883476851</v>
+      </c>
+      <c r="W33">
+        <v>0.1210432699136545</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.5465543533907405</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1417374411983134</v>
+      </c>
+      <c r="C34">
+        <v>1.608243014954289</v>
+      </c>
+      <c r="D34">
+        <v>2.483883014954289</v>
+      </c>
+      <c r="E34">
+        <v>0.8926400000000001</v>
+      </c>
+      <c r="F34">
+        <v>1.10464</v>
+      </c>
+      <c r="G34">
+        <v>0.229</v>
+      </c>
+      <c r="H34">
+        <v>3.24</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.114</v>
+      </c>
+      <c r="K34">
+        <v>0.032</v>
+      </c>
+      <c r="L34">
+        <v>0.082</v>
+      </c>
+      <c r="M34">
+        <v>0.154870528</v>
+      </c>
+      <c r="N34">
+        <v>-0.072870528</v>
+      </c>
+      <c r="O34">
+        <v>-0.018217632</v>
+      </c>
+      <c r="P34">
+        <v>-0.05465289600000001</v>
+      </c>
+      <c r="Q34">
+        <v>-0.02265289600000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1511941581251184</v>
+      </c>
+      <c r="T34">
+        <v>1.41191876189768</v>
+      </c>
+      <c r="U34">
+        <v>0.1402</v>
+      </c>
+      <c r="V34">
+        <v>0.13236863246182</v>
+      </c>
+      <c r="W34">
+        <v>0.1216419177288528</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.5294745298472799</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1430464411983134</v>
+      </c>
+      <c r="C35">
+        <v>1.549412813969172</v>
+      </c>
+      <c r="D35">
+        <v>2.459572813969172</v>
+      </c>
+      <c r="E35">
+        <v>0.9271600000000002</v>
+      </c>
+      <c r="F35">
+        <v>1.13916</v>
+      </c>
+      <c r="G35">
+        <v>0.229</v>
+      </c>
+      <c r="H35">
+        <v>3.24</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.114</v>
+      </c>
+      <c r="K35">
+        <v>0.032</v>
+      </c>
+      <c r="L35">
+        <v>0.082</v>
+      </c>
+      <c r="M35">
+        <v>0.159710232</v>
+      </c>
+      <c r="N35">
+        <v>-0.077710232</v>
+      </c>
+      <c r="O35">
+        <v>-0.019427558</v>
+      </c>
+      <c r="P35">
+        <v>-0.05828267400000001</v>
+      </c>
+      <c r="Q35">
+        <v>-0.02628267400000001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1533119813807172</v>
+      </c>
+      <c r="T35">
+        <v>1.432992176254362</v>
+      </c>
+      <c r="U35">
+        <v>0.1402</v>
+      </c>
+      <c r="V35">
+        <v>0.1283574617811588</v>
+      </c>
+      <c r="W35">
+        <v>0.1222042838582815</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.513429847124635</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1601560553777839</v>
+      </c>
+      <c r="C36">
+        <v>1.235935885207236</v>
+      </c>
+      <c r="D36">
+        <v>2.180615885207236</v>
+      </c>
+      <c r="E36">
+        <v>0.9616800000000003</v>
+      </c>
+      <c r="F36">
+        <v>1.17368</v>
+      </c>
+      <c r="G36">
+        <v>0.229</v>
+      </c>
+      <c r="H36">
+        <v>3.24</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.114</v>
+      </c>
+      <c r="K36">
+        <v>0.032</v>
+      </c>
+      <c r="L36">
+        <v>0.082</v>
+      </c>
+      <c r="M36">
+        <v>0.2156050160000001</v>
+      </c>
+      <c r="N36">
+        <v>-0.1336050160000001</v>
+      </c>
+      <c r="O36">
+        <v>-0.03340125400000002</v>
+      </c>
+      <c r="P36">
+        <v>-0.1002037620000001</v>
+      </c>
+      <c r="Q36">
+        <v>-0.06820376200000006</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1570252147038651</v>
+      </c>
+      <c r="T36">
+        <v>1.469940729073804</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.09508127584564172</v>
+      </c>
+      <c r="W36">
+        <v>0.1662335696271556</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.3803251033825668</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1619000553777839</v>
+      </c>
+      <c r="C37">
+        <v>1.17649456984869</v>
+      </c>
+      <c r="D37">
+        <v>2.15569456984869</v>
+      </c>
+      <c r="E37">
+        <v>0.9962000000000002</v>
+      </c>
+      <c r="F37">
+        <v>1.2082</v>
+      </c>
+      <c r="G37">
+        <v>0.229</v>
+      </c>
+      <c r="H37">
+        <v>3.24</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.114</v>
+      </c>
+      <c r="K37">
+        <v>0.032</v>
+      </c>
+      <c r="L37">
+        <v>0.082</v>
+      </c>
+      <c r="M37">
+        <v>0.22194634</v>
+      </c>
+      <c r="N37">
+        <v>-0.13994634</v>
+      </c>
+      <c r="O37">
+        <v>-0.034986585</v>
+      </c>
+      <c r="P37">
+        <v>-0.104959755</v>
+      </c>
+      <c r="Q37">
+        <v>-0.072959755</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1592979103146938</v>
+      </c>
+      <c r="T37">
+        <v>1.492555201828786</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.09236466796433768</v>
+      </c>
+      <c r="W37">
+        <v>0.1667326104949512</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.3694586718573508</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1636440553777839</v>
+      </c>
+      <c r="C38">
+        <v>1.117616447855498</v>
+      </c>
+      <c r="D38">
+        <v>2.131336447855498</v>
+      </c>
+      <c r="E38">
+        <v>1.03072</v>
+      </c>
+      <c r="F38">
+        <v>1.24272</v>
+      </c>
+      <c r="G38">
+        <v>0.229</v>
+      </c>
+      <c r="H38">
+        <v>3.24</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.114</v>
+      </c>
+      <c r="K38">
+        <v>0.032</v>
+      </c>
+      <c r="L38">
+        <v>0.082</v>
+      </c>
+      <c r="M38">
+        <v>0.228287664</v>
+      </c>
+      <c r="N38">
+        <v>-0.146287664</v>
+      </c>
+      <c r="O38">
+        <v>-0.036571916</v>
+      </c>
+      <c r="P38">
+        <v>-0.109715748</v>
+      </c>
+      <c r="Q38">
+        <v>-0.07771574799999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1616416276633609</v>
+      </c>
+      <c r="T38">
+        <v>1.51587637685736</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.08979898274310609</v>
+      </c>
+      <c r="W38">
+        <v>0.1672039268700914</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.3591959309724244</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1653880553777839</v>
+      </c>
+      <c r="C39">
+        <v>1.059282641244457</v>
+      </c>
+      <c r="D39">
+        <v>2.107522641244457</v>
+      </c>
+      <c r="E39">
+        <v>1.06524</v>
+      </c>
+      <c r="F39">
+        <v>1.27724</v>
+      </c>
+      <c r="G39">
+        <v>0.229</v>
+      </c>
+      <c r="H39">
+        <v>3.24</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.114</v>
+      </c>
+      <c r="K39">
+        <v>0.032</v>
+      </c>
+      <c r="L39">
+        <v>0.082</v>
+      </c>
+      <c r="M39">
+        <v>0.234628988</v>
+      </c>
+      <c r="N39">
+        <v>-0.152628988</v>
+      </c>
+      <c r="O39">
+        <v>-0.03815724700000001</v>
+      </c>
+      <c r="P39">
+        <v>-0.114471741</v>
+      </c>
+      <c r="Q39">
+        <v>-0.08247174100000002</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1640597487373825</v>
+      </c>
+      <c r="T39">
+        <v>1.539937906648747</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.08737198320950861</v>
+      </c>
+      <c r="W39">
+        <v>0.1676497666844133</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.3494879328380345</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1671320553777839</v>
+      </c>
+      <c r="C40">
+        <v>1.00147510641807</v>
+      </c>
+      <c r="D40">
+        <v>2.08423510641807</v>
+      </c>
+      <c r="E40">
+        <v>1.09976</v>
+      </c>
+      <c r="F40">
+        <v>1.31176</v>
+      </c>
+      <c r="G40">
+        <v>0.229</v>
+      </c>
+      <c r="H40">
+        <v>3.24</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.114</v>
+      </c>
+      <c r="K40">
+        <v>0.032</v>
+      </c>
+      <c r="L40">
+        <v>0.082</v>
+      </c>
+      <c r="M40">
+        <v>0.240970312</v>
+      </c>
+      <c r="N40">
+        <v>-0.1589703120000001</v>
+      </c>
+      <c r="O40">
+        <v>-0.03974257800000001</v>
+      </c>
+      <c r="P40">
+        <v>-0.119227734</v>
+      </c>
+      <c r="Q40">
+        <v>-0.08722773400000004</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1665558737170177</v>
+      </c>
+      <c r="T40">
+        <v>1.564775614820501</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.08507272049346891</v>
+      </c>
+      <c r="W40">
+        <v>0.1680721412453497</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.3402908819738756</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1688760553777839</v>
+      </c>
+      <c r="C41">
+        <v>0.9441765885697144</v>
+      </c>
+      <c r="D41">
+        <v>2.061456588569714</v>
+      </c>
+      <c r="E41">
+        <v>1.13428</v>
+      </c>
+      <c r="F41">
+        <v>1.34628</v>
+      </c>
+      <c r="G41">
+        <v>0.229</v>
+      </c>
+      <c r="H41">
+        <v>3.24</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.114</v>
+      </c>
+      <c r="K41">
+        <v>0.032</v>
+      </c>
+      <c r="L41">
+        <v>0.082</v>
+      </c>
+      <c r="M41">
+        <v>0.247311636</v>
+      </c>
+      <c r="N41">
+        <v>-0.165311636</v>
+      </c>
+      <c r="O41">
+        <v>-0.04132790900000001</v>
+      </c>
+      <c r="P41">
+        <v>-0.123983727</v>
+      </c>
+      <c r="Q41">
+        <v>-0.09198372700000003</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1691338388599196</v>
+      </c>
+      <c r="T41">
+        <v>1.590427674079853</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.08289136868594407</v>
+      </c>
+      <c r="W41">
+        <v>0.1684728555723921</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.3315654747437762</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1706200553777839</v>
+      </c>
+      <c r="C42">
+        <v>0.8873705790463084</v>
+      </c>
+      <c r="D42">
+        <v>2.039170579046309</v>
+      </c>
+      <c r="E42">
+        <v>1.1688</v>
+      </c>
+      <c r="F42">
+        <v>1.3808</v>
+      </c>
+      <c r="G42">
+        <v>0.229</v>
+      </c>
+      <c r="H42">
+        <v>3.24</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.114</v>
+      </c>
+      <c r="K42">
+        <v>0.032</v>
+      </c>
+      <c r="L42">
+        <v>0.082</v>
+      </c>
+      <c r="M42">
+        <v>0.25365296</v>
+      </c>
+      <c r="N42">
+        <v>-0.17165296</v>
+      </c>
+      <c r="O42">
+        <v>-0.04291324000000001</v>
+      </c>
+      <c r="P42">
+        <v>-0.12873972</v>
+      </c>
+      <c r="Q42">
+        <v>-0.09673972</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1717977361742516</v>
+      </c>
+      <c r="T42">
+        <v>1.616934801981184</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.08081908446879546</v>
+      </c>
+      <c r="W42">
+        <v>0.1688535341830823</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.323276337875182</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1723640553777839</v>
+      </c>
+      <c r="C43">
+        <v>0.8310412754470722</v>
+      </c>
+      <c r="D43">
+        <v>2.017361275447072</v>
+      </c>
+      <c r="E43">
+        <v>1.20332</v>
+      </c>
+      <c r="F43">
+        <v>1.41532</v>
+      </c>
+      <c r="G43">
+        <v>0.229</v>
+      </c>
+      <c r="H43">
+        <v>3.24</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.114</v>
+      </c>
+      <c r="K43">
+        <v>0.032</v>
+      </c>
+      <c r="L43">
+        <v>0.082</v>
+      </c>
+      <c r="M43">
+        <v>0.2599942840000001</v>
+      </c>
+      <c r="N43">
+        <v>-0.1779942840000001</v>
+      </c>
+      <c r="O43">
+        <v>-0.04449857100000001</v>
+      </c>
+      <c r="P43">
+        <v>-0.133495713</v>
+      </c>
+      <c r="Q43">
+        <v>-0.101495713</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1745519350924593</v>
+      </c>
+      <c r="T43">
+        <v>1.644340476591035</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.07884788728662971</v>
+      </c>
+      <c r="W43">
+        <v>0.1692156431054461</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.3153915491465189</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1741080553777839</v>
+      </c>
+      <c r="C44">
+        <v>0.7751735442556882</v>
+      </c>
+      <c r="D44">
+        <v>1.996013544255688</v>
+      </c>
+      <c r="E44">
+        <v>1.23784</v>
+      </c>
+      <c r="F44">
+        <v>1.44984</v>
+      </c>
+      <c r="G44">
+        <v>0.229</v>
+      </c>
+      <c r="H44">
+        <v>3.24</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.114</v>
+      </c>
+      <c r="K44">
+        <v>0.032</v>
+      </c>
+      <c r="L44">
+        <v>0.082</v>
+      </c>
+      <c r="M44">
+        <v>0.266335608</v>
+      </c>
+      <c r="N44">
+        <v>-0.184335608</v>
+      </c>
+      <c r="O44">
+        <v>-0.046083902</v>
+      </c>
+      <c r="P44">
+        <v>-0.138251706</v>
+      </c>
+      <c r="Q44">
+        <v>-0.106251706</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1774011063871568</v>
+      </c>
+      <c r="T44">
+        <v>1.672691174463294</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.07697055663694807</v>
+      </c>
+      <c r="W44">
+        <v>0.1695605087457926</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3078822265477924</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1758520553777839</v>
+      </c>
+      <c r="C45">
+        <v>0.7197528858201858</v>
+      </c>
+      <c r="D45">
+        <v>1.975112885820186</v>
+      </c>
+      <c r="E45">
+        <v>1.27236</v>
+      </c>
+      <c r="F45">
+        <v>1.48436</v>
+      </c>
+      <c r="G45">
+        <v>0.229</v>
+      </c>
+      <c r="H45">
+        <v>3.24</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.114</v>
+      </c>
+      <c r="K45">
+        <v>0.032</v>
+      </c>
+      <c r="L45">
+        <v>0.082</v>
+      </c>
+      <c r="M45">
+        <v>0.272676932</v>
+      </c>
+      <c r="N45">
+        <v>-0.190676932</v>
+      </c>
+      <c r="O45">
+        <v>-0.04766923300000001</v>
+      </c>
+      <c r="P45">
+        <v>-0.143007699</v>
+      </c>
+      <c r="Q45">
+        <v>-0.111007699</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1803502486044753</v>
+      </c>
+      <c r="T45">
+        <v>1.702036633664404</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.07518054369190276</v>
+      </c>
+      <c r="W45">
+        <v>0.1698893341237975</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.3007221747676111</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1775960553777839</v>
+      </c>
+      <c r="C46">
+        <v>0.6647654015102402</v>
+      </c>
+      <c r="D46">
+        <v>1.954645401510241</v>
+      </c>
+      <c r="E46">
+        <v>1.30688</v>
+      </c>
+      <c r="F46">
+        <v>1.51888</v>
+      </c>
+      <c r="G46">
+        <v>0.229</v>
+      </c>
+      <c r="H46">
+        <v>3.24</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.114</v>
+      </c>
+      <c r="K46">
+        <v>0.032</v>
+      </c>
+      <c r="L46">
+        <v>0.082</v>
+      </c>
+      <c r="M46">
+        <v>0.279018256</v>
+      </c>
+      <c r="N46">
+        <v>-0.197018256</v>
+      </c>
+      <c r="O46">
+        <v>-0.049254564</v>
+      </c>
+      <c r="P46">
+        <v>-0.147763692</v>
+      </c>
+      <c r="Q46">
+        <v>-0.115763692</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1834047173295553</v>
+      </c>
+      <c r="T46">
+        <v>1.73243014497984</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.07347189497163224</v>
+      </c>
+      <c r="W46">
+        <v>0.1702032128937112</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.293887579886529</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1793400553777839</v>
+      </c>
+      <c r="C47">
+        <v>0.6101977628955619</v>
+      </c>
+      <c r="D47">
+        <v>1.934597762895562</v>
+      </c>
+      <c r="E47">
+        <v>1.3414</v>
+      </c>
+      <c r="F47">
+        <v>1.5534</v>
+      </c>
+      <c r="G47">
+        <v>0.229</v>
+      </c>
+      <c r="H47">
+        <v>3.24</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.114</v>
+      </c>
+      <c r="K47">
+        <v>0.032</v>
+      </c>
+      <c r="L47">
+        <v>0.082</v>
+      </c>
+      <c r="M47">
+        <v>0.28535958</v>
+      </c>
+      <c r="N47">
+        <v>-0.20335958</v>
+      </c>
+      <c r="O47">
+        <v>-0.050839895</v>
+      </c>
+      <c r="P47">
+        <v>-0.152519685</v>
+      </c>
+      <c r="Q47">
+        <v>-0.120519685</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1865702576446381</v>
+      </c>
+      <c r="T47">
+        <v>1.763928874888565</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.07183918619448487</v>
+      </c>
+      <c r="W47">
+        <v>0.1705031414960731</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2873567447779395</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1810840553777839</v>
+      </c>
+      <c r="C48">
+        <v>0.5560371828017339</v>
+      </c>
+      <c r="D48">
+        <v>1.914957182801734</v>
+      </c>
+      <c r="E48">
+        <v>1.37592</v>
+      </c>
+      <c r="F48">
+        <v>1.58792</v>
+      </c>
+      <c r="G48">
+        <v>0.229</v>
+      </c>
+      <c r="H48">
+        <v>3.24</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.114</v>
+      </c>
+      <c r="K48">
+        <v>0.032</v>
+      </c>
+      <c r="L48">
+        <v>0.082</v>
+      </c>
+      <c r="M48">
+        <v>0.291700904</v>
+      </c>
+      <c r="N48">
+        <v>-0.209700904</v>
+      </c>
+      <c r="O48">
+        <v>-0.05242522600000001</v>
+      </c>
+      <c r="P48">
+        <v>-0.157275678</v>
+      </c>
+      <c r="Q48">
+        <v>-0.125275678</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1898530401936129</v>
+      </c>
+      <c r="T48">
+        <v>1.796594224423538</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.07027746475547432</v>
+      </c>
+      <c r="W48">
+        <v>0.1707900297244194</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2811098590218973</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1828280553777839</v>
+      </c>
+      <c r="C49">
+        <v>0.5022713881114431</v>
+      </c>
+      <c r="D49">
+        <v>1.895711388111443</v>
+      </c>
+      <c r="E49">
+        <v>1.41044</v>
+      </c>
+      <c r="F49">
+        <v>1.62244</v>
+      </c>
+      <c r="G49">
+        <v>0.229</v>
+      </c>
+      <c r="H49">
+        <v>3.24</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.114</v>
+      </c>
+      <c r="K49">
+        <v>0.032</v>
+      </c>
+      <c r="L49">
+        <v>0.082</v>
+      </c>
+      <c r="M49">
+        <v>0.2980422280000001</v>
+      </c>
+      <c r="N49">
+        <v>-0.2160422280000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.05401055700000001</v>
+      </c>
+      <c r="P49">
+        <v>-0.162031671</v>
+      </c>
+      <c r="Q49">
+        <v>-0.130031671</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1932597013293414</v>
+      </c>
+      <c r="T49">
+        <v>1.830492228657945</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.06878219954791102</v>
+      </c>
+      <c r="W49">
+        <v>0.1710647099430488</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2751287981916442</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1845720553777839</v>
+      </c>
+      <c r="C50">
+        <v>0.4488885941895013</v>
+      </c>
+      <c r="D50">
+        <v>1.876848594189501</v>
+      </c>
+      <c r="E50">
+        <v>1.44496</v>
+      </c>
+      <c r="F50">
+        <v>1.65696</v>
+      </c>
+      <c r="G50">
+        <v>0.229</v>
+      </c>
+      <c r="H50">
+        <v>3.24</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.114</v>
+      </c>
+      <c r="K50">
+        <v>0.032</v>
+      </c>
+      <c r="L50">
+        <v>0.082</v>
+      </c>
+      <c r="M50">
+        <v>0.3043835520000001</v>
+      </c>
+      <c r="N50">
+        <v>-0.222383552</v>
+      </c>
+      <c r="O50">
+        <v>-0.05559588800000001</v>
+      </c>
+      <c r="P50">
+        <v>-0.166787664</v>
+      </c>
+      <c r="Q50">
+        <v>-0.134787664</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1967973878933672</v>
+      </c>
+      <c r="T50">
+        <v>1.865694002285982</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.06734923705732955</v>
+      </c>
+      <c r="W50">
+        <v>0.1713279451525686</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2693969482293183</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1863160553777839</v>
+      </c>
+      <c r="C51">
+        <v>0.395877480819695</v>
+      </c>
+      <c r="D51">
+        <v>1.858357480819695</v>
+      </c>
+      <c r="E51">
+        <v>1.47948</v>
+      </c>
+      <c r="F51">
+        <v>1.69148</v>
+      </c>
+      <c r="G51">
+        <v>0.229</v>
+      </c>
+      <c r="H51">
+        <v>3.24</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.114</v>
+      </c>
+      <c r="K51">
+        <v>0.032</v>
+      </c>
+      <c r="L51">
+        <v>0.082</v>
+      </c>
+      <c r="M51">
+        <v>0.310724876</v>
+      </c>
+      <c r="N51">
+        <v>-0.228724876</v>
+      </c>
+      <c r="O51">
+        <v>-0.05718121900000001</v>
+      </c>
+      <c r="P51">
+        <v>-0.171543657</v>
+      </c>
+      <c r="Q51">
+        <v>-0.139543657</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.2004738072638254</v>
+      </c>
+      <c r="T51">
+        <v>1.902276237624922</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.06597476283166977</v>
+      </c>
+      <c r="W51">
+        <v>0.1715804360678223</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2638990513266791</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1880600553777839</v>
+      </c>
+      <c r="C52">
+        <v>0.3432271695502107</v>
+      </c>
+      <c r="D52">
+        <v>1.840227169550211</v>
+      </c>
+      <c r="E52">
+        <v>1.514</v>
+      </c>
+      <c r="F52">
+        <v>1.726</v>
+      </c>
+      <c r="G52">
+        <v>0.229</v>
+      </c>
+      <c r="H52">
+        <v>3.24</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.114</v>
+      </c>
+      <c r="K52">
+        <v>0.032</v>
+      </c>
+      <c r="L52">
+        <v>0.082</v>
+      </c>
+      <c r="M52">
+        <v>0.3170662</v>
+      </c>
+      <c r="N52">
+        <v>-0.2350662</v>
+      </c>
+      <c r="O52">
+        <v>-0.05876655</v>
+      </c>
+      <c r="P52">
+        <v>-0.17629965</v>
+      </c>
+      <c r="Q52">
+        <v>-0.14429965</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.2042972834091019</v>
+      </c>
+      <c r="T52">
+        <v>1.940321762377421</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.06465526757503638</v>
+      </c>
+      <c r="W52">
+        <v>0.1718228273464658</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2586210703001456</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1898040553777839</v>
+      </c>
+      <c r="C53">
+        <v>0.2909272023523617</v>
+      </c>
+      <c r="D53">
+        <v>1.822447202352362</v>
+      </c>
+      <c r="E53">
+        <v>1.54852</v>
+      </c>
+      <c r="F53">
+        <v>1.76052</v>
+      </c>
+      <c r="G53">
+        <v>0.229</v>
+      </c>
+      <c r="H53">
+        <v>3.24</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.114</v>
+      </c>
+      <c r="K53">
+        <v>0.032</v>
+      </c>
+      <c r="L53">
+        <v>0.082</v>
+      </c>
+      <c r="M53">
+        <v>0.3234075240000001</v>
+      </c>
+      <c r="N53">
+        <v>-0.241407524</v>
+      </c>
+      <c r="O53">
+        <v>-0.06035188100000001</v>
+      </c>
+      <c r="P53">
+        <v>-0.181055643</v>
+      </c>
+      <c r="Q53">
+        <v>-0.149055643</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.2082768198052061</v>
+      </c>
+      <c r="T53">
+        <v>1.979920165691246</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.06338751723042782</v>
+      </c>
+      <c r="W53">
+        <v>0.1720557130847704</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2535500689217113</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1915480553777839</v>
+      </c>
+      <c r="C54">
+        <v>0.2389675215046627</v>
+      </c>
+      <c r="D54">
+        <v>1.805007521504663</v>
+      </c>
+      <c r="E54">
+        <v>1.58304</v>
+      </c>
+      <c r="F54">
+        <v>1.79504</v>
+      </c>
+      <c r="G54">
+        <v>0.229</v>
+      </c>
+      <c r="H54">
+        <v>3.24</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.114</v>
+      </c>
+      <c r="K54">
+        <v>0.032</v>
+      </c>
+      <c r="L54">
+        <v>0.082</v>
+      </c>
+      <c r="M54">
+        <v>0.329748848</v>
+      </c>
+      <c r="N54">
+        <v>-0.247748848</v>
+      </c>
+      <c r="O54">
+        <v>-0.06193721200000001</v>
+      </c>
+      <c r="P54">
+        <v>-0.185811636</v>
+      </c>
+      <c r="Q54">
+        <v>-0.153811636</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.2124221702178145</v>
+      </c>
+      <c r="T54">
+        <v>2.02116850247648</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.06216852651445805</v>
+      </c>
+      <c r="W54">
+        <v>0.172279641679294</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2486741060578322</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1932920553777839</v>
+      </c>
+      <c r="C55">
+        <v>0.1873384506209188</v>
+      </c>
+      <c r="D55">
+        <v>1.787898450620919</v>
+      </c>
+      <c r="E55">
+        <v>1.61756</v>
+      </c>
+      <c r="F55">
+        <v>1.82956</v>
+      </c>
+      <c r="G55">
+        <v>0.229</v>
+      </c>
+      <c r="H55">
+        <v>3.24</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.114</v>
+      </c>
+      <c r="K55">
+        <v>0.032</v>
+      </c>
+      <c r="L55">
+        <v>0.082</v>
+      </c>
+      <c r="M55">
+        <v>0.3360901720000001</v>
+      </c>
+      <c r="N55">
+        <v>-0.2540901720000001</v>
+      </c>
+      <c r="O55">
+        <v>-0.06352254300000001</v>
+      </c>
+      <c r="P55">
+        <v>-0.190567629</v>
+      </c>
+      <c r="Q55">
+        <v>-0.158567629</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.2167439185203212</v>
+      </c>
+      <c r="T55">
+        <v>2.064172087635555</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.06099553544814752</v>
+      </c>
+      <c r="W55">
+        <v>0.1724951201381753</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2439821417925901</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1950360553777839</v>
+      </c>
+      <c r="C56">
+        <v>0.1360306767471773</v>
+      </c>
+      <c r="D56">
+        <v>1.771110676747178</v>
+      </c>
+      <c r="E56">
+        <v>1.65208</v>
+      </c>
+      <c r="F56">
+        <v>1.86408</v>
+      </c>
+      <c r="G56">
+        <v>0.229</v>
+      </c>
+      <c r="H56">
+        <v>3.24</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.114</v>
+      </c>
+      <c r="K56">
+        <v>0.032</v>
+      </c>
+      <c r="L56">
+        <v>0.082</v>
+      </c>
+      <c r="M56">
+        <v>0.3424314960000001</v>
+      </c>
+      <c r="N56">
+        <v>-0.260431496</v>
+      </c>
+      <c r="O56">
+        <v>-0.06510787400000001</v>
+      </c>
+      <c r="P56">
+        <v>-0.195323622</v>
+      </c>
+      <c r="Q56">
+        <v>-0.163323622</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2212535689229369</v>
+      </c>
+      <c r="T56">
+        <v>2.109045393888501</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.05986598849540405</v>
+      </c>
+      <c r="W56">
+        <v>0.1727026179133943</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2394639539816162</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1967800553777839</v>
+      </c>
+      <c r="C57">
+        <v>0.0850352334579012</v>
+      </c>
+      <c r="D57">
+        <v>1.754635233457901</v>
+      </c>
+      <c r="E57">
+        <v>1.6866</v>
+      </c>
+      <c r="F57">
+        <v>1.8986</v>
+      </c>
+      <c r="G57">
+        <v>0.229</v>
+      </c>
+      <c r="H57">
+        <v>3.24</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.114</v>
+      </c>
+      <c r="K57">
+        <v>0.032</v>
+      </c>
+      <c r="L57">
+        <v>0.082</v>
+      </c>
+      <c r="M57">
+        <v>0.34877282</v>
+      </c>
+      <c r="N57">
+        <v>-0.26677282</v>
+      </c>
+      <c r="O57">
+        <v>-0.06669320500000001</v>
+      </c>
+      <c r="P57">
+        <v>-0.200079615</v>
+      </c>
+      <c r="Q57">
+        <v>-0.168079615</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2259636482323355</v>
+      </c>
+      <c r="T57">
+        <v>2.155913069308246</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.05877751597730579</v>
+      </c>
+      <c r="W57">
+        <v>0.1729025703149689</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2351100639092232</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1985240553777839</v>
+      </c>
+      <c r="C58">
+        <v>0.03434348488692196</v>
+      </c>
+      <c r="D58">
+        <v>1.738463484886922</v>
+      </c>
+      <c r="E58">
+        <v>1.72112</v>
+      </c>
+      <c r="F58">
+        <v>1.93312</v>
+      </c>
+      <c r="G58">
+        <v>0.229</v>
+      </c>
+      <c r="H58">
+        <v>3.24</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.114</v>
+      </c>
+      <c r="K58">
+        <v>0.032</v>
+      </c>
+      <c r="L58">
+        <v>0.082</v>
+      </c>
+      <c r="M58">
+        <v>0.3551141440000001</v>
+      </c>
+      <c r="N58">
+        <v>-0.2731141440000001</v>
+      </c>
+      <c r="O58">
+        <v>-0.06827853600000001</v>
+      </c>
+      <c r="P58">
+        <v>-0.2048356080000001</v>
+      </c>
+      <c r="Q58">
+        <v>-0.1728356080000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2308878220557977</v>
+      </c>
+      <c r="T58">
+        <v>2.204911093610706</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.05772791747771104</v>
+      </c>
+      <c r="W58">
+        <v>0.1730953815593445</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2309116699108442</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.2002680553777839</v>
+      </c>
+      <c r="C59">
+        <v>-0.01605288936658855</v>
+      </c>
+      <c r="D59">
+        <v>1.722587110633412</v>
+      </c>
+      <c r="E59">
+        <v>1.755640000000001</v>
+      </c>
+      <c r="F59">
+        <v>1.96764</v>
+      </c>
+      <c r="G59">
+        <v>0.229</v>
+      </c>
+      <c r="H59">
+        <v>3.24</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.114</v>
+      </c>
+      <c r="K59">
+        <v>0.032</v>
+      </c>
+      <c r="L59">
+        <v>0.082</v>
+      </c>
+      <c r="M59">
+        <v>0.3614554680000001</v>
+      </c>
+      <c r="N59">
+        <v>-0.2794554680000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.06986386700000002</v>
+      </c>
+      <c r="P59">
+        <v>-0.2095916010000001</v>
+      </c>
+      <c r="Q59">
+        <v>-0.1775916010000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.236041027219886</v>
+      </c>
+      <c r="T59">
+        <v>2.256188095787699</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.05671514699564593</v>
+      </c>
+      <c r="W59">
+        <v>0.1732814274968998</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2268605879825838</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.2020120553777839</v>
+      </c>
+      <c r="C60">
+        <v>-0.06616190851256354</v>
+      </c>
+      <c r="D60">
+        <v>1.706998091487436</v>
+      </c>
+      <c r="E60">
+        <v>1.79016</v>
+      </c>
+      <c r="F60">
+        <v>2.00216</v>
+      </c>
+      <c r="G60">
+        <v>0.229</v>
+      </c>
+      <c r="H60">
+        <v>3.24</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.114</v>
+      </c>
+      <c r="K60">
+        <v>0.032</v>
+      </c>
+      <c r="L60">
+        <v>0.082</v>
+      </c>
+      <c r="M60">
+        <v>0.367796792</v>
+      </c>
+      <c r="N60">
+        <v>-0.285796792</v>
+      </c>
+      <c r="O60">
+        <v>-0.07144919799999999</v>
+      </c>
+      <c r="P60">
+        <v>-0.214347594</v>
+      </c>
+      <c r="Q60">
+        <v>-0.182347594</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2414396231060737</v>
+      </c>
+      <c r="T60">
+        <v>2.30990685997312</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.05573729963365206</v>
+      </c>
+      <c r="W60">
+        <v>0.1734610580572981</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2229491985346083</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.2037560553777839</v>
+      </c>
+      <c r="C61">
+        <v>-0.1159913040763607</v>
+      </c>
+      <c r="D61">
+        <v>1.691688695923639</v>
+      </c>
+      <c r="E61">
+        <v>1.82468</v>
+      </c>
+      <c r="F61">
+        <v>2.03668</v>
+      </c>
+      <c r="G61">
+        <v>0.229</v>
+      </c>
+      <c r="H61">
+        <v>3.24</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.114</v>
+      </c>
+      <c r="K61">
+        <v>0.032</v>
+      </c>
+      <c r="L61">
+        <v>0.082</v>
+      </c>
+      <c r="M61">
+        <v>0.374138116</v>
+      </c>
+      <c r="N61">
+        <v>-0.292138116</v>
+      </c>
+      <c r="O61">
+        <v>-0.073034529</v>
+      </c>
+      <c r="P61">
+        <v>-0.219103587</v>
+      </c>
+      <c r="Q61">
+        <v>-0.187103587</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2471015651330511</v>
+      </c>
+      <c r="T61">
+        <v>2.366246051679782</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.05479259963986134</v>
+      </c>
+      <c r="W61">
+        <v>0.1736345994461575</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2191703985594454</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.2055000553777838</v>
+      </c>
+      <c r="C62">
+        <v>-0.1655485326847321</v>
+      </c>
+      <c r="D62">
+        <v>1.676651467315268</v>
+      </c>
+      <c r="E62">
+        <v>1.8592</v>
+      </c>
+      <c r="F62">
+        <v>2.0712</v>
+      </c>
+      <c r="G62">
+        <v>0.229</v>
+      </c>
+      <c r="H62">
+        <v>3.24</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.114</v>
+      </c>
+      <c r="K62">
+        <v>0.032</v>
+      </c>
+      <c r="L62">
+        <v>0.082</v>
+      </c>
+      <c r="M62">
+        <v>0.3804794400000001</v>
+      </c>
+      <c r="N62">
+        <v>-0.29847944</v>
+      </c>
+      <c r="O62">
+        <v>-0.07461986000000001</v>
+      </c>
+      <c r="P62">
+        <v>-0.22385958</v>
+      </c>
+      <c r="Q62">
+        <v>-0.19185958</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2530466042613774</v>
+      </c>
+      <c r="T62">
+        <v>2.425402202971776</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.05387938964586365</v>
+      </c>
+      <c r="W62">
+        <v>0.1738023561220548</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2155175585834546</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2072440553777839</v>
+      </c>
+      <c r="C63">
+        <v>-0.2148407881758967</v>
+      </c>
+      <c r="D63">
+        <v>1.661879211824103</v>
+      </c>
+      <c r="E63">
+        <v>1.89372</v>
+      </c>
+      <c r="F63">
+        <v>2.10572</v>
+      </c>
+      <c r="G63">
+        <v>0.229</v>
+      </c>
+      <c r="H63">
+        <v>3.24</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.114</v>
+      </c>
+      <c r="K63">
+        <v>0.032</v>
+      </c>
+      <c r="L63">
+        <v>0.082</v>
+      </c>
+      <c r="M63">
+        <v>0.386820764</v>
+      </c>
+      <c r="N63">
+        <v>-0.304820764</v>
+      </c>
+      <c r="O63">
+        <v>-0.07620519100000001</v>
+      </c>
+      <c r="P63">
+        <v>-0.228615573</v>
+      </c>
+      <c r="Q63">
+        <v>-0.196615573</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2592965171911563</v>
+      </c>
+      <c r="T63">
+        <v>2.487592003047976</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.05299612096314457</v>
+      </c>
+      <c r="W63">
+        <v>0.1739646125790703</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2119844838525783</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2089880553777839</v>
+      </c>
+      <c r="C64">
+        <v>-0.2638750130750176</v>
+      </c>
+      <c r="D64">
+        <v>1.647364986924983</v>
+      </c>
+      <c r="E64">
+        <v>1.92824</v>
+      </c>
+      <c r="F64">
+        <v>2.14024</v>
+      </c>
+      <c r="G64">
+        <v>0.229</v>
+      </c>
+      <c r="H64">
+        <v>3.24</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.114</v>
+      </c>
+      <c r="K64">
+        <v>0.032</v>
+      </c>
+      <c r="L64">
+        <v>0.082</v>
+      </c>
+      <c r="M64">
+        <v>0.3931620880000001</v>
+      </c>
+      <c r="N64">
+        <v>-0.3111620880000001</v>
+      </c>
+      <c r="O64">
+        <v>-0.07779052200000001</v>
+      </c>
+      <c r="P64">
+        <v>-0.233371566</v>
+      </c>
+      <c r="Q64">
+        <v>-0.201371566</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.265875372906713</v>
+      </c>
+      <c r="T64">
+        <v>2.553054950496607</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.05214134481857772</v>
+      </c>
+      <c r="W64">
+        <v>0.1741216349568273</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.208565379274311</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2107320553777839</v>
+      </c>
+      <c r="C65">
+        <v>-0.312657909473552</v>
+      </c>
+      <c r="D65">
+        <v>1.633102090526448</v>
+      </c>
+      <c r="E65">
+        <v>1.962760000000001</v>
+      </c>
+      <c r="F65">
+        <v>2.17476</v>
+      </c>
+      <c r="G65">
+        <v>0.229</v>
+      </c>
+      <c r="H65">
+        <v>3.24</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.114</v>
+      </c>
+      <c r="K65">
+        <v>0.032</v>
+      </c>
+      <c r="L65">
+        <v>0.082</v>
+      </c>
+      <c r="M65">
+        <v>0.3995034120000001</v>
+      </c>
+      <c r="N65">
+        <v>-0.3175034120000001</v>
+      </c>
+      <c r="O65">
+        <v>-0.07937585300000002</v>
+      </c>
+      <c r="P65">
+        <v>-0.2381275590000001</v>
+      </c>
+      <c r="Q65">
+        <v>-0.2061275590000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2728098424447323</v>
+      </c>
+      <c r="T65">
+        <v>2.622056435645164</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.05131370442463203</v>
+      </c>
+      <c r="W65">
+        <v>0.1742736724971951</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2052548176985282</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2124760553777839</v>
+      </c>
+      <c r="C66">
+        <v>-0.3611959493482915</v>
+      </c>
+      <c r="D66">
+        <v>1.619084050651709</v>
+      </c>
+      <c r="E66">
+        <v>1.99728</v>
+      </c>
+      <c r="F66">
+        <v>2.20928</v>
+      </c>
+      <c r="G66">
+        <v>0.229</v>
+      </c>
+      <c r="H66">
+        <v>3.24</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.114</v>
+      </c>
+      <c r="K66">
+        <v>0.032</v>
+      </c>
+      <c r="L66">
+        <v>0.082</v>
+      </c>
+      <c r="M66">
+        <v>0.405844736</v>
+      </c>
+      <c r="N66">
+        <v>-0.323844736</v>
+      </c>
+      <c r="O66">
+        <v>-0.08096118400000001</v>
+      </c>
+      <c r="P66">
+        <v>-0.242883552</v>
+      </c>
+      <c r="Q66">
+        <v>-0.210883552</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2801295602904194</v>
+      </c>
+      <c r="T66">
+        <v>2.694891336635308</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.05051192779299717</v>
+      </c>
+      <c r="W66">
+        <v>0.1744209588644264</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2020477111719887</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2142200553777839</v>
+      </c>
+      <c r="C67">
+        <v>-0.4094953843534741</v>
+      </c>
+      <c r="D67">
+        <v>1.605304615646526</v>
+      </c>
+      <c r="E67">
+        <v>2.0318</v>
+      </c>
+      <c r="F67">
+        <v>2.2438</v>
+      </c>
+      <c r="G67">
+        <v>0.229</v>
+      </c>
+      <c r="H67">
+        <v>3.24</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.114</v>
+      </c>
+      <c r="K67">
+        <v>0.032</v>
+      </c>
+      <c r="L67">
+        <v>0.082</v>
+      </c>
+      <c r="M67">
+        <v>0.4121860600000001</v>
+      </c>
+      <c r="N67">
+        <v>-0.3301860600000001</v>
+      </c>
+      <c r="O67">
+        <v>-0.08254651500000001</v>
+      </c>
+      <c r="P67">
+        <v>-0.247639545</v>
+      </c>
+      <c r="Q67">
+        <v>-0.215639545</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2878675477272885</v>
+      </c>
+      <c r="T67">
+        <v>2.771888231967745</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.04973482121156644</v>
+      </c>
+      <c r="W67">
+        <v>0.1745637133434352</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1989392848462658</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2159640553777839</v>
+      </c>
+      <c r="C68">
+        <v>-0.4575622551170899</v>
+      </c>
+      <c r="D68">
+        <v>1.59175774488291</v>
+      </c>
+      <c r="E68">
+        <v>2.06632</v>
+      </c>
+      <c r="F68">
+        <v>2.27832</v>
+      </c>
+      <c r="G68">
+        <v>0.229</v>
+      </c>
+      <c r="H68">
+        <v>3.24</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.114</v>
+      </c>
+      <c r="K68">
+        <v>0.032</v>
+      </c>
+      <c r="L68">
+        <v>0.082</v>
+      </c>
+      <c r="M68">
+        <v>0.4185273840000001</v>
+      </c>
+      <c r="N68">
+        <v>-0.336527384</v>
+      </c>
+      <c r="O68">
+        <v>-0.08413184600000001</v>
+      </c>
+      <c r="P68">
+        <v>-0.252395538</v>
+      </c>
+      <c r="Q68">
+        <v>-0.220395538</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2960607108957382</v>
+      </c>
+      <c r="T68">
+        <v>2.853414356437384</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.04898126331442149</v>
+      </c>
+      <c r="W68">
+        <v>0.1747021419291408</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1959250532576861</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2177080553777839</v>
+      </c>
+      <c r="C69">
+        <v>-0.50540240007043</v>
+      </c>
+      <c r="D69">
+        <v>1.57843759992957</v>
+      </c>
+      <c r="E69">
+        <v>2.10084</v>
+      </c>
+      <c r="F69">
+        <v>2.31284</v>
+      </c>
+      <c r="G69">
+        <v>0.229</v>
+      </c>
+      <c r="H69">
+        <v>3.24</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.114</v>
+      </c>
+      <c r="K69">
+        <v>0.032</v>
+      </c>
+      <c r="L69">
+        <v>0.082</v>
+      </c>
+      <c r="M69">
+        <v>0.4248687080000001</v>
+      </c>
+      <c r="N69">
+        <v>-0.3428687080000001</v>
+      </c>
+      <c r="O69">
+        <v>-0.08571717700000002</v>
+      </c>
+      <c r="P69">
+        <v>-0.257151531</v>
+      </c>
+      <c r="Q69">
+        <v>-0.225151531</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.3047504294077302</v>
+      </c>
+      <c r="T69">
+        <v>2.939881458147608</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.04825019968286296</v>
+      </c>
+      <c r="W69">
+        <v>0.1748364383182581</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1930007987314519</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2194520553777839</v>
+      </c>
+      <c r="C70">
+        <v>-0.5530214638379893</v>
+      </c>
+      <c r="D70">
+        <v>1.565338536162011</v>
+      </c>
+      <c r="E70">
+        <v>2.13536</v>
+      </c>
+      <c r="F70">
+        <v>2.347360000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.229</v>
+      </c>
+      <c r="H70">
+        <v>3.24</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.114</v>
+      </c>
+      <c r="K70">
+        <v>0.032</v>
+      </c>
+      <c r="L70">
+        <v>0.082</v>
+      </c>
+      <c r="M70">
+        <v>0.4312100320000001</v>
+      </c>
+      <c r="N70">
+        <v>-0.3492100320000001</v>
+      </c>
+      <c r="O70">
+        <v>-0.08730250800000003</v>
+      </c>
+      <c r="P70">
+        <v>-0.2619075240000001</v>
+      </c>
+      <c r="Q70">
+        <v>-0.2299075240000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.3139832553267218</v>
+      </c>
+      <c r="T70">
+        <v>3.031752753714721</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.04754063792282086</v>
+      </c>
+      <c r="W70">
+        <v>0.1749667848135778</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1901625516912835</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2211960553777839</v>
+      </c>
+      <c r="C71">
+        <v>-0.6004249052130513</v>
+      </c>
+      <c r="D71">
+        <v>1.552455094786949</v>
+      </c>
+      <c r="E71">
+        <v>2.16988</v>
+      </c>
+      <c r="F71">
+        <v>2.381880000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.229</v>
+      </c>
+      <c r="H71">
+        <v>3.24</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.114</v>
+      </c>
+      <c r="K71">
+        <v>0.032</v>
+      </c>
+      <c r="L71">
+        <v>0.082</v>
+      </c>
+      <c r="M71">
+        <v>0.4375513560000001</v>
+      </c>
+      <c r="N71">
+        <v>-0.3555513560000001</v>
+      </c>
+      <c r="O71">
+        <v>-0.08888783900000002</v>
+      </c>
+      <c r="P71">
+        <v>-0.2666635170000001</v>
+      </c>
+      <c r="Q71">
+        <v>-0.2346635170000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3238117474340355</v>
+      </c>
+      <c r="T71">
+        <v>3.129551229641003</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.04685164317031621</v>
+      </c>
+      <c r="W71">
+        <v>0.1750933531496129</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1874065726812648</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2229400553777839</v>
+      </c>
+      <c r="C72">
+        <v>-0.6476180047426348</v>
+      </c>
+      <c r="D72">
+        <v>1.539781995257365</v>
+      </c>
+      <c r="E72">
+        <v>2.2044</v>
+      </c>
+      <c r="F72">
+        <v>2.4164</v>
+      </c>
+      <c r="G72">
+        <v>0.229</v>
+      </c>
+      <c r="H72">
+        <v>3.24</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.114</v>
+      </c>
+      <c r="K72">
+        <v>0.032</v>
+      </c>
+      <c r="L72">
+        <v>0.082</v>
+      </c>
+      <c r="M72">
+        <v>0.44389268</v>
+      </c>
+      <c r="N72">
+        <v>-0.36189268</v>
+      </c>
+      <c r="O72">
+        <v>-0.09047317000000001</v>
+      </c>
+      <c r="P72">
+        <v>-0.27141951</v>
+      </c>
+      <c r="Q72">
+        <v>-0.23941951</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3342954723485033</v>
+      </c>
+      <c r="T72">
+        <v>3.233869603962369</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.04618233398216884</v>
+      </c>
+      <c r="W72">
+        <v>0.1752163052474756</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1847293359286754</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2246840553777839</v>
+      </c>
+      <c r="C73">
+        <v>-0.6946058719439399</v>
+      </c>
+      <c r="D73">
+        <v>1.52731412805606</v>
+      </c>
+      <c r="E73">
+        <v>2.23892</v>
+      </c>
+      <c r="F73">
+        <v>2.45092</v>
+      </c>
+      <c r="G73">
+        <v>0.229</v>
+      </c>
+      <c r="H73">
+        <v>3.24</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.114</v>
+      </c>
+      <c r="K73">
+        <v>0.032</v>
+      </c>
+      <c r="L73">
+        <v>0.082</v>
+      </c>
+      <c r="M73">
+        <v>0.450234004</v>
+      </c>
+      <c r="N73">
+        <v>-0.368234004</v>
+      </c>
+      <c r="O73">
+        <v>-0.092058501</v>
+      </c>
+      <c r="P73">
+        <v>-0.276175503</v>
+      </c>
+      <c r="Q73">
+        <v>-0.244175503</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3455022127743136</v>
+      </c>
+      <c r="T73">
+        <v>3.345382348926588</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.04553187857396928</v>
+      </c>
+      <c r="W73">
+        <v>0.1753357939059619</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1821275142958771</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2264280553777839</v>
+      </c>
+      <c r="C74">
+        <v>-0.7413934521730139</v>
+      </c>
+      <c r="D74">
+        <v>1.515046547826986</v>
+      </c>
+      <c r="E74">
+        <v>2.27344</v>
+      </c>
+      <c r="F74">
+        <v>2.48544</v>
+      </c>
+      <c r="G74">
+        <v>0.229</v>
+      </c>
+      <c r="H74">
+        <v>3.24</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.114</v>
+      </c>
+      <c r="K74">
+        <v>0.032</v>
+      </c>
+      <c r="L74">
+        <v>0.082</v>
+      </c>
+      <c r="M74">
+        <v>0.456575328</v>
+      </c>
+      <c r="N74">
+        <v>-0.374575328</v>
+      </c>
+      <c r="O74">
+        <v>-0.093643832</v>
+      </c>
+      <c r="P74">
+        <v>-0.280931496</v>
+      </c>
+      <c r="Q74">
+        <v>-0.248931496</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3575094346591106</v>
+      </c>
+      <c r="T74">
+        <v>3.464860289959681</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.04489949137155304</v>
+      </c>
+      <c r="W74">
+        <v>0.1754519634350457</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1795979654862122</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2281720553777839</v>
+      </c>
+      <c r="C75">
+        <v>-0.7879855331650327</v>
+      </c>
+      <c r="D75">
+        <v>1.502974466834967</v>
+      </c>
+      <c r="E75">
+        <v>2.30796</v>
+      </c>
+      <c r="F75">
+        <v>2.51996</v>
+      </c>
+      <c r="G75">
+        <v>0.229</v>
+      </c>
+      <c r="H75">
+        <v>3.24</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.114</v>
+      </c>
+      <c r="K75">
+        <v>0.032</v>
+      </c>
+      <c r="L75">
+        <v>0.082</v>
+      </c>
+      <c r="M75">
+        <v>0.462916652</v>
+      </c>
+      <c r="N75">
+        <v>-0.380916652</v>
+      </c>
+      <c r="O75">
+        <v>-0.09522916300000001</v>
+      </c>
+      <c r="P75">
+        <v>-0.285687489</v>
+      </c>
+      <c r="Q75">
+        <v>-0.253687489</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3704060803872257</v>
+      </c>
+      <c r="T75">
+        <v>3.593188448847076</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.04428442984591532</v>
+      </c>
+      <c r="W75">
+        <v>0.1755649502373054</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1771377193836613</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2299160553777839</v>
+      </c>
+      <c r="C76">
+        <v>-0.8343867512643761</v>
+      </c>
+      <c r="D76">
+        <v>1.491093248735624</v>
+      </c>
+      <c r="E76">
+        <v>2.34248</v>
+      </c>
+      <c r="F76">
+        <v>2.55448</v>
+      </c>
+      <c r="G76">
+        <v>0.229</v>
+      </c>
+      <c r="H76">
+        <v>3.24</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.114</v>
+      </c>
+      <c r="K76">
+        <v>0.032</v>
+      </c>
+      <c r="L76">
+        <v>0.082</v>
+      </c>
+      <c r="M76">
+        <v>0.4692579760000001</v>
+      </c>
+      <c r="N76">
+        <v>-0.3872579760000001</v>
+      </c>
+      <c r="O76">
+        <v>-0.09681449400000001</v>
+      </c>
+      <c r="P76">
+        <v>-0.290443482</v>
+      </c>
+      <c r="Q76">
+        <v>-0.258443482</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3842947757867344</v>
+      </c>
+      <c r="T76">
+        <v>3.731388004571964</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0436859916047543</v>
+      </c>
+      <c r="W76">
+        <v>0.1756748833422066</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1747439664190172</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2316600553777838</v>
+      </c>
+      <c r="C77">
+        <v>-0.8806015973615169</v>
+      </c>
+      <c r="D77">
+        <v>1.479398402638483</v>
+      </c>
+      <c r="E77">
+        <v>2.377</v>
+      </c>
+      <c r="F77">
+        <v>2.589</v>
+      </c>
+      <c r="G77">
+        <v>0.229</v>
+      </c>
+      <c r="H77">
+        <v>3.24</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.114</v>
+      </c>
+      <c r="K77">
+        <v>0.032</v>
+      </c>
+      <c r="L77">
+        <v>0.082</v>
+      </c>
+      <c r="M77">
+        <v>0.4755993000000001</v>
+      </c>
+      <c r="N77">
+        <v>-0.3935993</v>
+      </c>
+      <c r="O77">
+        <v>-0.09839982500000001</v>
+      </c>
+      <c r="P77">
+        <v>-0.295199475</v>
+      </c>
+      <c r="Q77">
+        <v>-0.2631994750000001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3992945668182038</v>
+      </c>
+      <c r="T77">
+        <v>3.880643524754842</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.04310351171669092</v>
+      </c>
+      <c r="W77">
+        <v>0.1757818848976439</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1724140468667636</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2334040553777839</v>
+      </c>
+      <c r="C78">
+        <v>-0.9266344225527088</v>
+      </c>
+      <c r="D78">
+        <v>1.467885577447292</v>
+      </c>
+      <c r="E78">
+        <v>2.41152</v>
+      </c>
+      <c r="F78">
+        <v>2.623520000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.229</v>
+      </c>
+      <c r="H78">
+        <v>3.24</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.114</v>
+      </c>
+      <c r="K78">
+        <v>0.032</v>
+      </c>
+      <c r="L78">
+        <v>0.082</v>
+      </c>
+      <c r="M78">
+        <v>0.4819406240000001</v>
+      </c>
+      <c r="N78">
+        <v>-0.3999406240000001</v>
+      </c>
+      <c r="O78">
+        <v>-0.09998515600000002</v>
+      </c>
+      <c r="P78">
+        <v>-0.2999554680000001</v>
+      </c>
+      <c r="Q78">
+        <v>-0.267955468</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.415544340435629</v>
+      </c>
+      <c r="T78">
+        <v>4.042337004952961</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.04253636024673445</v>
+      </c>
+      <c r="W78">
+        <v>0.1758860706226749</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1701454409869378</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2351480553777839</v>
+      </c>
+      <c r="C79">
+        <v>-0.9724894435374403</v>
+      </c>
+      <c r="D79">
+        <v>1.45655055646256</v>
+      </c>
+      <c r="E79">
+        <v>2.44604</v>
+      </c>
+      <c r="F79">
+        <v>2.65804</v>
+      </c>
+      <c r="G79">
+        <v>0.229</v>
+      </c>
+      <c r="H79">
+        <v>3.24</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.114</v>
+      </c>
+      <c r="K79">
+        <v>0.032</v>
+      </c>
+      <c r="L79">
+        <v>0.082</v>
+      </c>
+      <c r="M79">
+        <v>0.488281948</v>
+      </c>
+      <c r="N79">
+        <v>-0.406281948</v>
+      </c>
+      <c r="O79">
+        <v>-0.101570487</v>
+      </c>
+      <c r="P79">
+        <v>-0.304711461</v>
+      </c>
+      <c r="Q79">
+        <v>-0.272711461</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4332071378458738</v>
+      </c>
+      <c r="T79">
+        <v>4.218090787777003</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.04198393998378986</v>
+      </c>
+      <c r="W79">
+        <v>0.1759875502249778</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1679357599351594</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2368920553777839</v>
+      </c>
+      <c r="C80">
+        <v>-1.01817074776774</v>
+      </c>
+      <c r="D80">
+        <v>1.44538925223226</v>
+      </c>
+      <c r="E80">
+        <v>2.48056</v>
+      </c>
+      <c r="F80">
+        <v>2.69256</v>
+      </c>
+      <c r="G80">
+        <v>0.229</v>
+      </c>
+      <c r="H80">
+        <v>3.24</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.114</v>
+      </c>
+      <c r="K80">
+        <v>0.032</v>
+      </c>
+      <c r="L80">
+        <v>0.082</v>
+      </c>
+      <c r="M80">
+        <v>0.4946232720000001</v>
+      </c>
+      <c r="N80">
+        <v>-0.412623272</v>
+      </c>
+      <c r="O80">
+        <v>-0.103155818</v>
+      </c>
+      <c r="P80">
+        <v>-0.309467454</v>
+      </c>
+      <c r="Q80">
+        <v>-0.2774674540000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4524756441115954</v>
+      </c>
+      <c r="T80">
+        <v>4.409822187221413</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.04144568434297204</v>
+      </c>
+      <c r="W80">
+        <v>0.176086427786196</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1657827373718882</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2386360553777839</v>
+      </c>
+      <c r="C81">
+        <v>-1.063682298362524</v>
+      </c>
+      <c r="D81">
+        <v>1.434397701637476</v>
+      </c>
+      <c r="E81">
+        <v>2.51508</v>
+      </c>
+      <c r="F81">
+        <v>2.72708</v>
+      </c>
+      <c r="G81">
+        <v>0.229</v>
+      </c>
+      <c r="H81">
+        <v>3.24</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.114</v>
+      </c>
+      <c r="K81">
+        <v>0.032</v>
+      </c>
+      <c r="L81">
+        <v>0.082</v>
+      </c>
+      <c r="M81">
+        <v>0.5009645960000001</v>
+      </c>
+      <c r="N81">
+        <v>-0.4189645960000001</v>
+      </c>
+      <c r="O81">
+        <v>-0.104741149</v>
+      </c>
+      <c r="P81">
+        <v>-0.314223447</v>
+      </c>
+      <c r="Q81">
+        <v>-0.282223447</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4735792462121474</v>
+      </c>
+      <c r="T81">
+        <v>4.619813719946241</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.04092105542723821</v>
+      </c>
+      <c r="W81">
+        <v>0.1761828021180163</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1636842217089529</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2403800553777839</v>
+      </c>
+      <c r="C82">
+        <v>-1.109027938799411</v>
+      </c>
+      <c r="D82">
+        <v>1.42357206120059</v>
+      </c>
+      <c r="E82">
+        <v>2.5496</v>
+      </c>
+      <c r="F82">
+        <v>2.7616</v>
+      </c>
+      <c r="G82">
+        <v>0.229</v>
+      </c>
+      <c r="H82">
+        <v>3.24</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.114</v>
+      </c>
+      <c r="K82">
+        <v>0.032</v>
+      </c>
+      <c r="L82">
+        <v>0.082</v>
+      </c>
+      <c r="M82">
+        <v>0.5073059200000001</v>
+      </c>
+      <c r="N82">
+        <v>-0.4253059200000001</v>
+      </c>
+      <c r="O82">
+        <v>-0.10632648</v>
+      </c>
+      <c r="P82">
+        <v>-0.3189794400000001</v>
+      </c>
+      <c r="Q82">
+        <v>-0.2869794400000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4967932085227548</v>
+      </c>
+      <c r="T82">
+        <v>4.850804405943554</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.04040954223439773</v>
+      </c>
+      <c r="W82">
+        <v>0.1762767670915411</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.161638168937591</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2421240553777839</v>
+      </c>
+      <c r="C83">
+        <v>-1.154211397395669</v>
+      </c>
+      <c r="D83">
+        <v>1.412908602604332</v>
+      </c>
+      <c r="E83">
+        <v>2.58412</v>
+      </c>
+      <c r="F83">
+        <v>2.796120000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.229</v>
+      </c>
+      <c r="H83">
+        <v>3.24</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.114</v>
+      </c>
+      <c r="K83">
+        <v>0.032</v>
+      </c>
+      <c r="L83">
+        <v>0.082</v>
+      </c>
+      <c r="M83">
+        <v>0.5136472440000002</v>
+      </c>
+      <c r="N83">
+        <v>-0.4316472440000002</v>
+      </c>
+      <c r="O83">
+        <v>-0.107911811</v>
+      </c>
+      <c r="P83">
+        <v>-0.3237354330000001</v>
+      </c>
+      <c r="Q83">
+        <v>-0.2917354330000002</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.5224507458134262</v>
+      </c>
+      <c r="T83">
+        <v>5.106109900993215</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.03991065899693603</v>
+      </c>
+      <c r="W83">
+        <v>0.1763684119422629</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1596426359877441</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2438680553777839</v>
+      </c>
+      <c r="C84">
+        <v>-1.199236291589268</v>
+      </c>
+      <c r="D84">
+        <v>1.402403708410732</v>
+      </c>
+      <c r="E84">
+        <v>2.618640000000001</v>
+      </c>
+      <c r="F84">
+        <v>2.830640000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.229</v>
+      </c>
+      <c r="H84">
+        <v>3.24</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.114</v>
+      </c>
+      <c r="K84">
+        <v>0.032</v>
+      </c>
+      <c r="L84">
+        <v>0.082</v>
+      </c>
+      <c r="M84">
+        <v>0.5199885680000002</v>
+      </c>
+      <c r="N84">
+        <v>-0.4379885680000001</v>
+      </c>
+      <c r="O84">
+        <v>-0.109497142</v>
+      </c>
+      <c r="P84">
+        <v>-0.3284914260000001</v>
+      </c>
+      <c r="Q84">
+        <v>-0.2964914260000001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.5509591205808388</v>
+      </c>
+      <c r="T84">
+        <v>5.389782673270616</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03942394364331486</v>
+      </c>
+      <c r="W84">
+        <v>0.1764578215527231</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1576957745732595</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2456120553777839</v>
+      </c>
+      <c r="C85">
+        <v>-1.244106132030367</v>
+      </c>
+      <c r="D85">
+        <v>1.392053867969633</v>
+      </c>
+      <c r="E85">
+        <v>2.65316</v>
+      </c>
+      <c r="F85">
+        <v>2.86516</v>
+      </c>
+      <c r="G85">
+        <v>0.229</v>
+      </c>
+      <c r="H85">
+        <v>3.24</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.114</v>
+      </c>
+      <c r="K85">
+        <v>0.032</v>
+      </c>
+      <c r="L85">
+        <v>0.082</v>
+      </c>
+      <c r="M85">
+        <v>0.526329892</v>
+      </c>
+      <c r="N85">
+        <v>-0.444329892</v>
+      </c>
+      <c r="O85">
+        <v>-0.111082473</v>
+      </c>
+      <c r="P85">
+        <v>-0.333247419</v>
+      </c>
+      <c r="Q85">
+        <v>-0.301247419</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5828214217914764</v>
+      </c>
+      <c r="T85">
+        <v>5.706828712874771</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.03894895637050384</v>
+      </c>
+      <c r="W85">
+        <v>0.1765450767147384</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1557958254820154</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2473560553777839</v>
+      </c>
+      <c r="C86">
+        <v>-1.288824326492954</v>
+      </c>
+      <c r="D86">
+        <v>1.381855673507046</v>
+      </c>
+      <c r="E86">
+        <v>2.68768</v>
+      </c>
+      <c r="F86">
+        <v>2.89968</v>
+      </c>
+      <c r="G86">
+        <v>0.229</v>
+      </c>
+      <c r="H86">
+        <v>3.24</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.114</v>
+      </c>
+      <c r="K86">
+        <v>0.032</v>
+      </c>
+      <c r="L86">
+        <v>0.082</v>
+      </c>
+      <c r="M86">
+        <v>0.532671216</v>
+      </c>
+      <c r="N86">
+        <v>-0.450671216</v>
+      </c>
+      <c r="O86">
+        <v>-0.112667804</v>
+      </c>
+      <c r="P86">
+        <v>-0.338003412</v>
+      </c>
+      <c r="Q86">
+        <v>-0.306003412</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.6186665106534435</v>
+      </c>
+      <c r="T86">
+        <v>6.063505507429441</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.03848527831847404</v>
+      </c>
+      <c r="W86">
+        <v>0.1766302543728963</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1539411132738961</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2491000553777838</v>
+      </c>
+      <c r="C87">
+        <v>-1.333394183615796</v>
+      </c>
+      <c r="D87">
+        <v>1.371805816384204</v>
+      </c>
+      <c r="E87">
+        <v>2.7222</v>
+      </c>
+      <c r="F87">
+        <v>2.9342</v>
+      </c>
+      <c r="G87">
+        <v>0.229</v>
+      </c>
+      <c r="H87">
+        <v>3.24</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.114</v>
+      </c>
+      <c r="K87">
+        <v>0.032</v>
+      </c>
+      <c r="L87">
+        <v>0.082</v>
+      </c>
+      <c r="M87">
+        <v>0.53901254</v>
+      </c>
+      <c r="N87">
+        <v>-0.45701254</v>
+      </c>
+      <c r="O87">
+        <v>-0.114253135</v>
+      </c>
+      <c r="P87">
+        <v>-0.342759405</v>
+      </c>
+      <c r="Q87">
+        <v>-0.310759405</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.6592909446970063</v>
+      </c>
+      <c r="T87">
+        <v>6.467739207924737</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0380325103382567</v>
+      </c>
+      <c r="W87">
+        <v>0.1767134278508622</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1521300413530268</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2508440553777839</v>
+      </c>
+      <c r="C88">
+        <v>-1.377818916481327</v>
+      </c>
+      <c r="D88">
+        <v>1.361901083518673</v>
+      </c>
+      <c r="E88">
+        <v>2.75672</v>
+      </c>
+      <c r="F88">
+        <v>2.96872</v>
+      </c>
+      <c r="G88">
+        <v>0.229</v>
+      </c>
+      <c r="H88">
+        <v>3.24</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.114</v>
+      </c>
+      <c r="K88">
+        <v>0.032</v>
+      </c>
+      <c r="L88">
+        <v>0.082</v>
+      </c>
+      <c r="M88">
+        <v>0.5453538640000001</v>
+      </c>
+      <c r="N88">
+        <v>-0.4633538640000001</v>
+      </c>
+      <c r="O88">
+        <v>-0.115838466</v>
+      </c>
+      <c r="P88">
+        <v>-0.347515398</v>
+      </c>
+      <c r="Q88">
+        <v>-0.3155153980000001</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.705718869318221</v>
+      </c>
+      <c r="T88">
+        <v>6.92972057991936</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.03759027184595138</v>
+      </c>
+      <c r="W88">
+        <v>0.1767946670618987</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1503610873838055</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2525880553777838</v>
+      </c>
+      <c r="C89">
+        <v>-1.422101646040608</v>
+      </c>
+      <c r="D89">
+        <v>1.352138353959393</v>
+      </c>
+      <c r="E89">
+        <v>2.79124</v>
+      </c>
+      <c r="F89">
+        <v>3.00324</v>
+      </c>
+      <c r="G89">
+        <v>0.229</v>
+      </c>
+      <c r="H89">
+        <v>3.24</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.114</v>
+      </c>
+      <c r="K89">
+        <v>0.032</v>
+      </c>
+      <c r="L89">
+        <v>0.082</v>
+      </c>
+      <c r="M89">
+        <v>0.5516951880000001</v>
+      </c>
+      <c r="N89">
+        <v>-0.469695188</v>
+      </c>
+      <c r="O89">
+        <v>-0.117423797</v>
+      </c>
+      <c r="P89">
+        <v>-0.352271391</v>
+      </c>
+      <c r="Q89">
+        <v>-0.320271391</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.7592895515734689</v>
+      </c>
+      <c r="T89">
+        <v>7.462776009143927</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.03715819975576803</v>
+      </c>
+      <c r="W89">
+        <v>0.1768740387048654</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1486327990230721</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2543320553777839</v>
+      </c>
+      <c r="C90">
+        <v>-1.466245404392019</v>
+      </c>
+      <c r="D90">
+        <v>1.342514595607982</v>
+      </c>
+      <c r="E90">
+        <v>2.82576</v>
+      </c>
+      <c r="F90">
+        <v>3.03776</v>
+      </c>
+      <c r="G90">
+        <v>0.229</v>
+      </c>
+      <c r="H90">
+        <v>3.24</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.114</v>
+      </c>
+      <c r="K90">
+        <v>0.032</v>
+      </c>
+      <c r="L90">
+        <v>0.082</v>
+      </c>
+      <c r="M90">
+        <v>0.558036512</v>
+      </c>
+      <c r="N90">
+        <v>-0.476036512</v>
+      </c>
+      <c r="O90">
+        <v>-0.119009128</v>
+      </c>
+      <c r="P90">
+        <v>-0.357027384</v>
+      </c>
+      <c r="Q90">
+        <v>-0.325027384</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.8217886808712581</v>
+      </c>
+      <c r="T90">
+        <v>8.084674009905923</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.03673594748581612</v>
+      </c>
+      <c r="W90">
+        <v>0.1769516064468556</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1469437899432645</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2560760553777839</v>
+      </c>
+      <c r="C91">
+        <v>-1.51025313792093</v>
+      </c>
+      <c r="D91">
+        <v>1.33302686207907</v>
+      </c>
+      <c r="E91">
+        <v>2.86028</v>
+      </c>
+      <c r="F91">
+        <v>3.072280000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.229</v>
+      </c>
+      <c r="H91">
+        <v>3.24</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.114</v>
+      </c>
+      <c r="K91">
+        <v>0.032</v>
+      </c>
+      <c r="L91">
+        <v>0.082</v>
+      </c>
+      <c r="M91">
+        <v>0.5643778360000001</v>
+      </c>
+      <c r="N91">
+        <v>-0.4823778360000001</v>
+      </c>
+      <c r="O91">
+        <v>-0.120594459</v>
+      </c>
+      <c r="P91">
+        <v>-0.3617833770000001</v>
+      </c>
+      <c r="Q91">
+        <v>-0.329783377</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.8956512882231907</v>
+      </c>
+      <c r="T91">
+        <v>8.819644374442825</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.03632318403091931</v>
+      </c>
+      <c r="W91">
+        <v>0.1770274310935201</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1452927361236772</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2578200553777839</v>
+      </c>
+      <c r="C92">
+        <v>-1.554127710307178</v>
+      </c>
+      <c r="D92">
+        <v>1.323672289692822</v>
+      </c>
+      <c r="E92">
+        <v>2.8948</v>
+      </c>
+      <c r="F92">
+        <v>3.1068</v>
+      </c>
+      <c r="G92">
+        <v>0.229</v>
+      </c>
+      <c r="H92">
+        <v>3.24</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.114</v>
+      </c>
+      <c r="K92">
+        <v>0.032</v>
+      </c>
+      <c r="L92">
+        <v>0.082</v>
+      </c>
+      <c r="M92">
+        <v>0.57071916</v>
+      </c>
+      <c r="N92">
+        <v>-0.48871916</v>
+      </c>
+      <c r="O92">
+        <v>-0.12217979</v>
+      </c>
+      <c r="P92">
+        <v>-0.36653937</v>
+      </c>
+      <c r="Q92">
+        <v>-0.33453937</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.9842864170455097</v>
+      </c>
+      <c r="T92">
+        <v>9.701608811887107</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.03591959309724244</v>
+      </c>
+      <c r="W92">
+        <v>0.1771015707480366</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1436783723889697</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2595640553777839</v>
+      </c>
+      <c r="C93">
+        <v>-1.597871905406788</v>
+      </c>
+      <c r="D93">
+        <v>1.314448094593212</v>
+      </c>
+      <c r="E93">
+        <v>2.92932</v>
+      </c>
+      <c r="F93">
+        <v>3.14132</v>
+      </c>
+      <c r="G93">
+        <v>0.229</v>
+      </c>
+      <c r="H93">
+        <v>3.24</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.114</v>
+      </c>
+      <c r="K93">
+        <v>0.032</v>
+      </c>
+      <c r="L93">
+        <v>0.082</v>
+      </c>
+      <c r="M93">
+        <v>0.5770604840000001</v>
+      </c>
+      <c r="N93">
+        <v>-0.4950604840000001</v>
+      </c>
+      <c r="O93">
+        <v>-0.123765121</v>
+      </c>
+      <c r="P93">
+        <v>-0.371295363</v>
+      </c>
+      <c r="Q93">
+        <v>-0.3392953630000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>1.092618241161678</v>
+      </c>
+      <c r="T93">
+        <v>10.77956534654123</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.03552487229397603</v>
+      </c>
+      <c r="W93">
+        <v>0.1771740809595966</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1420994891759041</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2613080553777839</v>
+      </c>
+      <c r="C94">
+        <v>-1.641488430014044</v>
+      </c>
+      <c r="D94">
+        <v>1.305351569985957</v>
+      </c>
+      <c r="E94">
+        <v>2.96384</v>
+      </c>
+      <c r="F94">
+        <v>3.17584</v>
+      </c>
+      <c r="G94">
+        <v>0.229</v>
+      </c>
+      <c r="H94">
+        <v>3.24</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.114</v>
+      </c>
+      <c r="K94">
+        <v>0.032</v>
+      </c>
+      <c r="L94">
+        <v>0.082</v>
+      </c>
+      <c r="M94">
+        <v>0.5834018080000001</v>
+      </c>
+      <c r="N94">
+        <v>-0.5014018080000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.125350452</v>
+      </c>
+      <c r="P94">
+        <v>-0.3760513560000001</v>
+      </c>
+      <c r="Q94">
+        <v>-0.344051356</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.228033021306888</v>
+      </c>
+      <c r="T94">
+        <v>12.12701101485889</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.03513873237773716</v>
+      </c>
+      <c r="W94">
+        <v>0.1772450148622097</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1405549295109486</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2630520553777839</v>
+      </c>
+      <c r="C95">
+        <v>-1.684979916509655</v>
+      </c>
+      <c r="D95">
+        <v>1.296380083490345</v>
+      </c>
+      <c r="E95">
+        <v>2.99836</v>
+      </c>
+      <c r="F95">
+        <v>3.210360000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.229</v>
+      </c>
+      <c r="H95">
+        <v>3.24</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.114</v>
+      </c>
+      <c r="K95">
+        <v>0.032</v>
+      </c>
+      <c r="L95">
+        <v>0.082</v>
+      </c>
+      <c r="M95">
+        <v>0.5897431320000001</v>
+      </c>
+      <c r="N95">
+        <v>-0.5077431320000001</v>
+      </c>
+      <c r="O95">
+        <v>-0.126935783</v>
+      </c>
+      <c r="P95">
+        <v>-0.3808073490000001</v>
+      </c>
+      <c r="Q95">
+        <v>-0.3488073490000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.402137738636444</v>
+      </c>
+      <c r="T95">
+        <v>13.85944115983873</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.03476089654571848</v>
+      </c>
+      <c r="W95">
+        <v>0.1773144233045515</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1390435861828738</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2647960553777839</v>
+      </c>
+      <c r="C96">
+        <v>-1.728348925400474</v>
+      </c>
+      <c r="D96">
+        <v>1.287531074599526</v>
+      </c>
+      <c r="E96">
+        <v>3.03288</v>
+      </c>
+      <c r="F96">
+        <v>3.244880000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.229</v>
+      </c>
+      <c r="H96">
+        <v>3.24</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.114</v>
+      </c>
+      <c r="K96">
+        <v>0.032</v>
+      </c>
+      <c r="L96">
+        <v>0.082</v>
+      </c>
+      <c r="M96">
+        <v>0.5960844560000002</v>
+      </c>
+      <c r="N96">
+        <v>-0.5140844560000002</v>
+      </c>
+      <c r="O96">
+        <v>-0.128521114</v>
+      </c>
+      <c r="P96">
+        <v>-0.3855633420000001</v>
+      </c>
+      <c r="Q96">
+        <v>-0.3535633420000002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.634277361742517</v>
+      </c>
+      <c r="T96">
+        <v>16.16934801981186</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.03439109977395551</v>
+      </c>
+      <c r="W96">
+        <v>0.1773823549715244</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.137564399095822</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2665400553777839</v>
+      </c>
+      <c r="C97">
+        <v>-1.771597947755892</v>
+      </c>
+      <c r="D97">
+        <v>1.278802052244109</v>
+      </c>
+      <c r="E97">
+        <v>3.067400000000001</v>
+      </c>
+      <c r="F97">
+        <v>3.279400000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.229</v>
+      </c>
+      <c r="H97">
+        <v>3.24</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.114</v>
+      </c>
+      <c r="K97">
+        <v>0.032</v>
+      </c>
+      <c r="L97">
+        <v>0.082</v>
+      </c>
+      <c r="M97">
+        <v>0.6024257800000001</v>
+      </c>
+      <c r="N97">
+        <v>-0.5204257800000002</v>
+      </c>
+      <c r="O97">
+        <v>-0.130106445</v>
+      </c>
+      <c r="P97">
+        <v>-0.3903193350000002</v>
+      </c>
+      <c r="Q97">
+        <v>-0.3583193350000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.959272834091022</v>
+      </c>
+      <c r="T97">
+        <v>19.40321762377424</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.03402908819738756</v>
+      </c>
+      <c r="W97">
+        <v>0.1774488564981399</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1361163527895501</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2682840553777838</v>
+      </c>
+      <c r="C98">
+        <v>-1.814729407545802</v>
+      </c>
+      <c r="D98">
+        <v>1.270190592454198</v>
+      </c>
+      <c r="E98">
+        <v>3.10192</v>
+      </c>
+      <c r="F98">
+        <v>3.31392</v>
+      </c>
+      <c r="G98">
+        <v>0.229</v>
+      </c>
+      <c r="H98">
+        <v>3.24</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.114</v>
+      </c>
+      <c r="K98">
+        <v>0.032</v>
+      </c>
+      <c r="L98">
+        <v>0.082</v>
+      </c>
+      <c r="M98">
+        <v>0.6087671040000001</v>
+      </c>
+      <c r="N98">
+        <v>-0.5267671040000002</v>
+      </c>
+      <c r="O98">
+        <v>-0.131691776</v>
+      </c>
+      <c r="P98">
+        <v>-0.3950753280000001</v>
+      </c>
+      <c r="Q98">
+        <v>-0.3630753280000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.446766042613772</v>
+      </c>
+      <c r="T98">
+        <v>24.25402202971774</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.03367461852866478</v>
+      </c>
+      <c r="W98">
+        <v>0.1775139725762843</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1346984741146591</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2700280553777839</v>
+      </c>
+      <c r="C99">
+        <v>-1.857745663884731</v>
+      </c>
+      <c r="D99">
+        <v>1.261694336115269</v>
+      </c>
+      <c r="E99">
+        <v>3.13644</v>
+      </c>
+      <c r="F99">
+        <v>3.34844</v>
+      </c>
+      <c r="G99">
+        <v>0.229</v>
+      </c>
+      <c r="H99">
+        <v>3.24</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.114</v>
+      </c>
+      <c r="K99">
+        <v>0.032</v>
+      </c>
+      <c r="L99">
+        <v>0.082</v>
+      </c>
+      <c r="M99">
+        <v>0.615108428</v>
+      </c>
+      <c r="N99">
+        <v>-0.533108428</v>
+      </c>
+      <c r="O99">
+        <v>-0.133277107</v>
+      </c>
+      <c r="P99">
+        <v>-0.399831321</v>
+      </c>
+      <c r="Q99">
+        <v>-0.367831321</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>3.25925472348503</v>
+      </c>
+      <c r="T99">
+        <v>32.33869603962366</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.03332745751290535</v>
+      </c>
+      <c r="W99">
+        <v>0.1775777460548793</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1333098300516213</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2717720553777839</v>
+      </c>
+      <c r="C100">
+        <v>-1.900649013186499</v>
+      </c>
+      <c r="D100">
+        <v>1.253310986813501</v>
+      </c>
+      <c r="E100">
+        <v>3.17096</v>
+      </c>
+      <c r="F100">
+        <v>3.38296</v>
+      </c>
+      <c r="G100">
+        <v>0.229</v>
+      </c>
+      <c r="H100">
+        <v>3.24</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.114</v>
+      </c>
+      <c r="K100">
+        <v>0.032</v>
+      </c>
+      <c r="L100">
+        <v>0.082</v>
+      </c>
+      <c r="M100">
+        <v>0.6214497520000001</v>
+      </c>
+      <c r="N100">
+        <v>-0.5394497520000001</v>
+      </c>
+      <c r="O100">
+        <v>-0.134862438</v>
+      </c>
+      <c r="P100">
+        <v>-0.4045873140000001</v>
+      </c>
+      <c r="Q100">
+        <v>-0.3725873140000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.884232085227544</v>
+      </c>
+      <c r="T100">
+        <v>48.50804405943549</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.03298738141583488</v>
+      </c>
+      <c r="W100">
+        <v>0.1776402180339111</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1319495256633395</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2735160553777838</v>
+      </c>
+      <c r="C101">
+        <v>-1.943441691233552</v>
+      </c>
+      <c r="D101">
+        <v>1.245038308766448</v>
+      </c>
+      <c r="E101">
+        <v>3.20548</v>
+      </c>
+      <c r="F101">
+        <v>3.41748</v>
+      </c>
+      <c r="G101">
+        <v>0.229</v>
+      </c>
+      <c r="H101">
+        <v>3.24</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.114</v>
+      </c>
+      <c r="K101">
+        <v>0.032</v>
+      </c>
+      <c r="L101">
+        <v>0.082</v>
+      </c>
+      <c r="M101">
+        <v>0.6277910760000001</v>
+      </c>
+      <c r="N101">
+        <v>-0.5457910760000001</v>
+      </c>
+      <c r="O101">
+        <v>-0.136447769</v>
+      </c>
+      <c r="P101">
+        <v>-0.4093433070000001</v>
+      </c>
+      <c r="Q101">
+        <v>-0.3773433070000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>9.759164170455088</v>
+      </c>
+      <c r="T101">
+        <v>97.01608811887098</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.03265417554294767</v>
+      </c>
+      <c r="W101">
+        <v>0.1777014279527605</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1306167021717906</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
